--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_6_31.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_6_31.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1530372.99483524</v>
+        <v>1595513.576160967</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13251674.51004886</v>
+        <v>11843801.51954497</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2065046.85755849</v>
+        <v>612367.9462114762</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6809637.742447097</v>
+        <v>7283979.697451405</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>19.05969460684969</v>
+        <v>152.8385987297594</v>
       </c>
       <c r="E2" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
         <v>400.2956717864458</v>
@@ -719,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>14.94721823158723</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -826,13 +828,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -862,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>160.8077423580357</v>
       </c>
       <c r="U4" t="n">
         <v>277.3826040146988</v>
@@ -877,13 +879,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>55.09707351428198</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>135.7074041394968</v>
       </c>
       <c r="C5" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>57.0676845728945</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
         <v>1.283897344658556</v>
@@ -1054,10 +1056,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>79.47996908724082</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1120,7 +1122,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>20.86872779098854</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -1130,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
         <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
-        <v>131.2274502623959</v>
+        <v>306.1540190556892</v>
       </c>
       <c r="F8" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
         <v>0.2956717864458369</v>
@@ -1151,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
@@ -1196,7 +1198,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
         <v>1.283897344658556</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1300,16 +1302,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>4.378995526347924</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>98.2633455906804</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
         <v>168.4336970060565</v>
@@ -1373,13 +1375,13 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>419.0596946068506</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
         <v>400.2956717864458</v>
@@ -1388,7 +1390,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>174.234677750715</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
         <v>255.7713603095518</v>
@@ -1430,10 +1432,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -1528,22 +1530,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>163.3453189036361</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>23.59638424611652</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
@@ -1588,13 +1590,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -1613,7 +1615,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
@@ -1625,7 +1627,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458144</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>356.7287172935155</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1765,7 +1767,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>143.2233374009794</v>
       </c>
       <c r="D16" t="n">
         <v>161.683605144497</v>
@@ -1783,7 +1785,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1828,7 +1830,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>160.9061021023308</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1901,7 +1903,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
-        <v>353.9145207250137</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
         <v>392.4274362026566</v>
@@ -2002,25 +2004,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>117.1479462018501</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,16 +2052,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>55.24977653398075</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
@@ -2135,7 +2137,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
-        <v>255.771360309553</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
         <v>353.914520725013</v>
@@ -2248,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>98.15366458399308</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
         <v>170.2528374898731</v>
@@ -2485,16 +2487,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>99.84616021016299</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2539,7 +2541,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>12.06219323947358</v>
       </c>
       <c r="Y25" t="n">
         <v>224.0793406271554</v>
@@ -2719,13 +2721,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>101.9929615813389</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>164.5944000087158</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>155.1469410361669</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
@@ -2852,7 +2854,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026577</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
         <v>407.6027988439302</v>
@@ -2956,7 +2958,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
@@ -2965,7 +2967,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>9.767450212061895</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -2995,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>59.2385771032238</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
@@ -3190,19 +3192,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>97.62252505704812</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3250,10 +3252,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -3323,7 +3325,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250144</v>
       </c>
       <c r="W35" t="n">
         <v>392.4274362026566</v>
@@ -3427,7 +3429,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3439,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>97.20067698409558</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3515,7 +3517,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>400.2956717864449</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H38" t="n">
         <v>294.8896947407055</v>
@@ -3664,22 +3666,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
         <v>277.3826040146988</v>
@@ -3724,10 +3726,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>69.61444029309537</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
@@ -3758,7 +3760,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T41" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>147.1204748839674</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>72.55550382028342</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
@@ -3916,7 +3918,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>19.53872709080487</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3989,13 +3991,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>58.70451812535975</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T44" t="n">
         <v>218.7163152458132</v>
@@ -4034,13 +4036,13 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -4138,22 +4140,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>108.3150987014997</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>168.1487656894605</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>972.9074190595575</v>
+        <v>1910.322343568193</v>
       </c>
       <c r="C2" t="n">
-        <v>546.0066890728575</v>
+        <v>1483.421613581493</v>
       </c>
       <c r="D2" t="n">
-        <v>526.7544722982618</v>
+        <v>1329.03919062214</v>
       </c>
       <c r="E2" t="n">
-        <v>504.8179364865234</v>
+        <v>903.0622507699975</v>
       </c>
       <c r="F2" t="n">
-        <v>483.7341587163277</v>
+        <v>477.9380689593976</v>
       </c>
       <c r="G2" t="n">
-        <v>79.39509630577632</v>
+        <v>73.59900654884625</v>
       </c>
       <c r="H2" t="n">
-        <v>79.39509630577632</v>
+        <v>73.59900654884625</v>
       </c>
       <c r="I2" t="n">
-        <v>44.49822504924753</v>
+        <v>38.70213529231746</v>
       </c>
       <c r="J2" t="n">
-        <v>44.49822504924753</v>
+        <v>401.305594109213</v>
       </c>
       <c r="K2" t="n">
-        <v>44.49822504924753</v>
+        <v>880.2445183516415</v>
       </c>
       <c r="L2" t="n">
-        <v>455.3583126271592</v>
+        <v>977.2289161310157</v>
       </c>
       <c r="M2" t="n">
-        <v>1006.023847611597</v>
+        <v>1456.167840373444</v>
       </c>
       <c r="N2" t="n">
-        <v>1556.689382596036</v>
+        <v>1456.167840373444</v>
       </c>
       <c r="O2" t="n">
-        <v>1556.689382596036</v>
+        <v>1456.167840373444</v>
       </c>
       <c r="P2" t="n">
-        <v>2107.354917580474</v>
+        <v>1935.106764615873</v>
       </c>
       <c r="Q2" t="n">
-        <v>2107.354917580474</v>
+        <v>1935.106764615873</v>
       </c>
       <c r="R2" t="n">
-        <v>2224.911252462377</v>
+        <v>1935.106764615873</v>
       </c>
       <c r="S2" t="n">
-        <v>2224.911252462377</v>
+        <v>1935.106764615873</v>
       </c>
       <c r="T2" t="n">
-        <v>2224.911252462377</v>
+        <v>1935.106764615873</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.911252462377</v>
+        <v>1935.106764615873</v>
       </c>
       <c r="V2" t="n">
-        <v>2224.911252462377</v>
+        <v>1935.106764615873</v>
       </c>
       <c r="W2" t="n">
-        <v>2209.81305222845</v>
+        <v>1935.106764615873</v>
       </c>
       <c r="X2" t="n">
-        <v>1798.093053396197</v>
+        <v>1927.427169824024</v>
       </c>
       <c r="Y2" t="n">
-        <v>1392.755783351088</v>
+        <v>1926.130303819318</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>611.6217160807028</v>
+        <v>693.5426250668182</v>
       </c>
       <c r="C3" t="n">
-        <v>494.1158125982075</v>
+        <v>576.036721584323</v>
       </c>
       <c r="D3" t="n">
-        <v>390.2758541134926</v>
+        <v>472.196763099608</v>
       </c>
       <c r="E3" t="n">
-        <v>285.5739203864298</v>
+        <v>367.4948293725452</v>
       </c>
       <c r="F3" t="n">
-        <v>191.928090069334</v>
+        <v>273.8489990554494</v>
       </c>
       <c r="G3" t="n">
-        <v>97.87431828693795</v>
+        <v>179.7952272730534</v>
       </c>
       <c r="H3" t="n">
-        <v>44.49822504924753</v>
+        <v>126.419134035363</v>
       </c>
       <c r="I3" t="n">
-        <v>44.49822504924753</v>
+        <v>126.419134035363</v>
       </c>
       <c r="J3" t="n">
-        <v>316.1957143288386</v>
+        <v>398.116623314954</v>
       </c>
       <c r="K3" t="n">
-        <v>316.1957143288386</v>
+        <v>398.116623314954</v>
       </c>
       <c r="L3" t="n">
-        <v>316.1957143288386</v>
+        <v>877.0555475573826</v>
       </c>
       <c r="M3" t="n">
-        <v>751.8547856608809</v>
+        <v>1355.994471799811</v>
       </c>
       <c r="N3" t="n">
-        <v>1302.520320645319</v>
+        <v>1355.994471799811</v>
       </c>
       <c r="O3" t="n">
-        <v>1302.520320645319</v>
+        <v>1355.994471799811</v>
       </c>
       <c r="P3" t="n">
-        <v>1853.185855629757</v>
+        <v>1388.94197766839</v>
       </c>
       <c r="Q3" t="n">
-        <v>1853.185855629757</v>
+        <v>1853.08745453117</v>
       </c>
       <c r="R3" t="n">
-        <v>1853.185855629757</v>
+        <v>1935.106764615873</v>
       </c>
       <c r="S3" t="n">
-        <v>1771.861608191012</v>
+        <v>1853.782517177127</v>
       </c>
       <c r="T3" t="n">
-        <v>1629.98167248869</v>
+        <v>1711.902581474806</v>
       </c>
       <c r="U3" t="n">
-        <v>1445.213476408327</v>
+        <v>1527.134385394442</v>
       </c>
       <c r="V3" t="n">
-        <v>1240.240337547593</v>
+        <v>1322.161246533708</v>
       </c>
       <c r="W3" t="n">
-        <v>1043.71896038081</v>
+        <v>1125.639869366926</v>
       </c>
       <c r="X3" t="n">
-        <v>880.2416141474731</v>
+        <v>962.1625231335886</v>
       </c>
       <c r="Y3" t="n">
-        <v>740.5487255007655</v>
+        <v>822.469634486881</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>645.6535462547869</v>
+        <v>778.0489204700307</v>
       </c>
       <c r="C4" t="n">
-        <v>645.6535462547869</v>
+        <v>778.0489204700307</v>
       </c>
       <c r="D4" t="n">
-        <v>482.3367733815576</v>
+        <v>614.7321475968014</v>
       </c>
       <c r="E4" t="n">
-        <v>316.1285675344111</v>
+        <v>448.523941749655</v>
       </c>
       <c r="F4" t="n">
-        <v>144.2667933089716</v>
+        <v>448.523941749655</v>
       </c>
       <c r="G4" t="n">
-        <v>144.2667933089716</v>
+        <v>282.2669720438871</v>
       </c>
       <c r="H4" t="n">
-        <v>144.2667933089716</v>
+        <v>138.4707035520415</v>
       </c>
       <c r="I4" t="n">
-        <v>44.49822504924753</v>
+        <v>38.70213529231746</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734062</v>
+        <v>96.19346351647548</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792433</v>
+        <v>322.7210647223127</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736641</v>
+        <v>393.4019879271602</v>
       </c>
       <c r="M4" t="n">
-        <v>1074.392270743915</v>
+        <v>784.587782897411</v>
       </c>
       <c r="N4" t="n">
-        <v>1451.883781619951</v>
+        <v>1162.079293773447</v>
       </c>
       <c r="O4" t="n">
-        <v>1807.311910299714</v>
+        <v>1517.50742245321</v>
       </c>
       <c r="P4" t="n">
-        <v>2097.911122221615</v>
+        <v>1808.106634375111</v>
       </c>
       <c r="Q4" t="n">
-        <v>2224.911252462377</v>
+        <v>1935.106764615873</v>
       </c>
       <c r="R4" t="n">
-        <v>2177.87263914955</v>
+        <v>1935.106764615873</v>
       </c>
       <c r="S4" t="n">
-        <v>2007.737591668685</v>
+        <v>1935.106764615873</v>
       </c>
       <c r="T4" t="n">
-        <v>1764.398243894585</v>
+        <v>1772.674701627958</v>
       </c>
       <c r="U4" t="n">
-        <v>1484.213795394889</v>
+        <v>1492.490253128262</v>
       </c>
       <c r="V4" t="n">
-        <v>1202.502328002918</v>
+        <v>1210.778785736291</v>
       </c>
       <c r="W4" t="n">
-        <v>927.6499241754307</v>
+        <v>1210.778785736291</v>
       </c>
       <c r="X4" t="n">
-        <v>871.9963145650448</v>
+        <v>968.2148891820964</v>
       </c>
       <c r="Y4" t="n">
-        <v>645.6535462547869</v>
+        <v>968.2148891820964</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>938.0105478030287</v>
+        <v>2078.856605666331</v>
       </c>
       <c r="C5" t="n">
-        <v>511.1098178163287</v>
+        <v>1651.955875679631</v>
       </c>
       <c r="D5" t="n">
-        <v>87.81719700132894</v>
+        <v>1632.703658905035</v>
       </c>
       <c r="E5" t="n">
-        <v>65.88066118959054</v>
+        <v>1206.726719052893</v>
       </c>
       <c r="F5" t="n">
-        <v>44.79688341939484</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="G5" t="n">
-        <v>44.49822504924753</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H5" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>407.101683866143</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L5" t="n">
-        <v>407.101683866143</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M5" t="n">
-        <v>957.7672188505812</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="N5" t="n">
-        <v>1508.432753835019</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="O5" t="n">
-        <v>1508.432753835019</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="P5" t="n">
-        <v>1768.825772958194</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q5" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2167.26712663117</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>2167.26712663117</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>2167.26712663117</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V5" t="n">
-        <v>2167.26712663117</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W5" t="n">
-        <v>1770.875776931517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X5" t="n">
-        <v>1359.155778099264</v>
+        <v>2217.231657670528</v>
       </c>
       <c r="Y5" t="n">
-        <v>1357.858912094559</v>
+        <v>2215.934791665823</v>
       </c>
     </row>
     <row r="6">
@@ -4644,22 +4646,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K6" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L6" t="n">
-        <v>316.1957143288386</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M6" t="n">
-        <v>316.1957143288386</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N6" t="n">
-        <v>866.8612493132769</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="O6" t="n">
-        <v>1302.520320645319</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P6" t="n">
         <v>1853.185855629757</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>473.8405358879687</v>
+        <v>268.5772905989122</v>
       </c>
       <c r="C7" t="n">
-        <v>473.8405358879687</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="D7" t="n">
-        <v>310.5237630147394</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="E7" t="n">
-        <v>310.5237630147394</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="F7" t="n">
-        <v>310.5237630147394</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="G7" t="n">
-        <v>144.2667933089716</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H7" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734062</v>
       </c>
       <c r="K7" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L7" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M7" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N7" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O7" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P7" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q7" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.872639149549</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668684</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T7" t="n">
-        <v>1764.398243894584</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="U7" t="n">
-        <v>1484.213795394888</v>
+        <v>1484.213795394889</v>
       </c>
       <c r="V7" t="n">
-        <v>1202.502328002917</v>
+        <v>1202.502328002918</v>
       </c>
       <c r="W7" t="n">
-        <v>927.6499241754298</v>
+        <v>927.6499241754307</v>
       </c>
       <c r="X7" t="n">
-        <v>685.0860276212348</v>
+        <v>685.0860276212358</v>
       </c>
       <c r="Y7" t="n">
-        <v>664.0065046000343</v>
+        <v>458.7432593109778</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>679.483459270441</v>
+        <v>821.2800918455217</v>
       </c>
       <c r="C8" t="n">
-        <v>656.6231333241452</v>
+        <v>798.4197658992259</v>
       </c>
       <c r="D8" t="n">
-        <v>233.3305125091455</v>
+        <v>779.1675491246302</v>
       </c>
       <c r="E8" t="n">
-        <v>100.7775324461193</v>
+        <v>469.9210652299946</v>
       </c>
       <c r="F8" t="n">
-        <v>79.69375467592363</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G8" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H8" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
         <v>44.49822504924753</v>
@@ -4805,49 +4807,49 @@
         <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>407.101683866143</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L8" t="n">
-        <v>667.4947029893171</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M8" t="n">
-        <v>1218.160237973755</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="N8" t="n">
-        <v>1768.825772958194</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="O8" t="n">
-        <v>1768.825772958194</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="P8" t="n">
-        <v>1768.825772958194</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q8" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R8" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>2120.543958335517</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U8" t="n">
-        <v>1862.189048931929</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="V8" t="n">
-        <v>1504.699634058179</v>
+        <v>1646.496266633259</v>
       </c>
       <c r="W8" t="n">
-        <v>1108.308284358525</v>
+        <v>1250.104916933606</v>
       </c>
       <c r="X8" t="n">
-        <v>1100.628689566677</v>
+        <v>838.3849181013534</v>
       </c>
       <c r="Y8" t="n">
-        <v>1099.331823561971</v>
+        <v>837.0880520966477</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4883,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K9" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L9" t="n">
-        <v>316.1957143288386</v>
+        <v>201.1892506764427</v>
       </c>
       <c r="M9" t="n">
-        <v>316.1957143288386</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="N9" t="n">
-        <v>866.8612493132769</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O9" t="n">
-        <v>1389.040378766978</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P9" t="n">
-        <v>1389.040378766978</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q9" t="n">
         <v>1853.185855629757</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>315.615903911738</v>
+        <v>458.7432593109769</v>
       </c>
       <c r="C10" t="n">
-        <v>315.615903911738</v>
+        <v>458.7432593109769</v>
       </c>
       <c r="D10" t="n">
-        <v>315.615903911738</v>
+        <v>458.7432593109769</v>
       </c>
       <c r="E10" t="n">
-        <v>315.615903911738</v>
+        <v>458.7432593109769</v>
       </c>
       <c r="F10" t="n">
-        <v>143.7541296862985</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>143.7541296862985</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
         <v>44.49822504924753</v>
@@ -4984,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2054.776204981511</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T10" t="n">
-        <v>1811.43685720741</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U10" t="n">
-        <v>1531.252408707715</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V10" t="n">
-        <v>1249.540941315744</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W10" t="n">
-        <v>974.6885374882565</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X10" t="n">
-        <v>732.1246409340616</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y10" t="n">
-        <v>505.7818726238037</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1617.082942235008</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C11" t="n">
-        <v>1190.182212248309</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D11" t="n">
-        <v>766.8895914333087</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
-        <v>766.8895914333087</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>766.8895914333087</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G11" t="n">
-        <v>362.5505290227574</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H11" t="n">
-        <v>64.68215049679216</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I11" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>64.68215049679216</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K11" t="n">
-        <v>64.68215049679216</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L11" t="n">
-        <v>865.1237628945952</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M11" t="n">
-        <v>865.1237628945952</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N11" t="n">
-        <v>1665.565375292398</v>
+        <v>3375.06837974776</v>
       </c>
       <c r="O11" t="n">
-        <v>2466.006987690201</v>
+        <v>4220.213029898572</v>
       </c>
       <c r="P11" t="n">
-        <v>2660.465710453522</v>
+        <v>4928.4923090565</v>
       </c>
       <c r="Q11" t="n">
-        <v>3116.551189957705</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R11" t="n">
-        <v>3234.107524839608</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S11" t="n">
-        <v>3234.107524839608</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T11" t="n">
-        <v>3058.112900848987</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U11" t="n">
-        <v>2799.757991445399</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>2442.268576571648</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W11" t="n">
-        <v>2442.268576571648</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X11" t="n">
-        <v>2442.268576571648</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y11" t="n">
-        <v>2036.931306526538</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>631.8056415282474</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C12" t="n">
-        <v>514.2997380457522</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D12" t="n">
-        <v>410.4597795610372</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E12" t="n">
-        <v>305.7578458339744</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F12" t="n">
-        <v>212.1120155168786</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>118.0582437344826</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H12" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J12" t="n">
-        <v>336.3796397763832</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K12" t="n">
-        <v>336.3796397763832</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.928168679499</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.928168679499</v>
+        <v>1429.986740661465</v>
       </c>
       <c r="N12" t="n">
-        <v>1072.928168679499</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O12" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P12" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q12" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R12" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S12" t="n">
-        <v>1792.045533638556</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T12" t="n">
-        <v>1650.165597936235</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U12" t="n">
-        <v>1465.397401855871</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V12" t="n">
-        <v>1260.424262995137</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W12" t="n">
-        <v>1063.902885828355</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>900.4255395950178</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y12" t="n">
-        <v>760.7326509483102</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>562.1425976695409</v>
+        <v>747.5344987021109</v>
       </c>
       <c r="C13" t="n">
-        <v>397.1473260497065</v>
+        <v>747.5344987021109</v>
       </c>
       <c r="D13" t="n">
-        <v>397.1473260497065</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="E13" t="n">
-        <v>230.93912020256</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F13" t="n">
-        <v>230.93912020256</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G13" t="n">
-        <v>64.68215049679216</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H13" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I13" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>122.1734787209502</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K13" t="n">
-        <v>348.7010799267874</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L13" t="n">
-        <v>703.3904012212081</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>1094.576196191459</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>1472.067707067495</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>1827.495835747258</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>2118.095047669159</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q13" t="n">
-        <v>2245.09517790992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2245.09517790992</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S13" t="n">
-        <v>2074.960130429055</v>
+        <v>2211.842395944396</v>
       </c>
       <c r="T13" t="n">
-        <v>1831.620782654955</v>
+        <v>1968.503048170296</v>
       </c>
       <c r="U13" t="n">
-        <v>1551.43633415526</v>
+        <v>1688.3185996706</v>
       </c>
       <c r="V13" t="n">
-        <v>1269.724866763288</v>
+        <v>1406.607132278629</v>
       </c>
       <c r="W13" t="n">
-        <v>994.8724629358014</v>
+        <v>1406.607132278629</v>
       </c>
       <c r="X13" t="n">
-        <v>752.3085663816065</v>
+        <v>1164.043235724434</v>
       </c>
       <c r="Y13" t="n">
-        <v>752.3085663816065</v>
+        <v>937.7004674141765</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2042.207124045608</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C14" t="n">
-        <v>1615.306394058908</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D14" t="n">
-        <v>1192.013773243908</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E14" t="n">
-        <v>1192.013773243908</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>766.8895914333087</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G14" t="n">
-        <v>362.5505290227574</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H14" t="n">
-        <v>64.68215049679216</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I14" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>427.2856093136877</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K14" t="n">
-        <v>1142.793917289187</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L14" t="n">
-        <v>1151.744818897791</v>
+        <v>1031.927761025105</v>
       </c>
       <c r="M14" t="n">
-        <v>1151.744818897791</v>
+        <v>2036.213862444163</v>
       </c>
       <c r="N14" t="n">
-        <v>1952.186431295595</v>
+        <v>3012.464920930865</v>
       </c>
       <c r="O14" t="n">
-        <v>1952.186431295595</v>
+        <v>3857.609571081677</v>
       </c>
       <c r="P14" t="n">
-        <v>2660.465710453522</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q14" t="n">
-        <v>3116.551189957705</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R14" t="n">
-        <v>3234.107524839608</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S14" t="n">
-        <v>3234.107524839608</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T14" t="n">
-        <v>3234.107524839608</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U14" t="n">
-        <v>3234.107524839608</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>3234.107524839608</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W14" t="n">
-        <v>2873.775487169391</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X14" t="n">
-        <v>2462.055488337138</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y14" t="n">
-        <v>2462.055488337138</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>631.8056415282474</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>514.2997380457522</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>410.4597795610372</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>305.7578458339744</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>212.1120155168786</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>118.0582437344826</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J15" t="n">
-        <v>64.68215049679216</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K15" t="n">
-        <v>655.1670770651317</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L15" t="n">
-        <v>655.1670770651317</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M15" t="n">
-        <v>1075.152753954101</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="N15" t="n">
-        <v>1075.152753954101</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="O15" t="n">
-        <v>1075.152753954101</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P15" t="n">
-        <v>1791.350470992599</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q15" t="n">
-        <v>1791.350470992599</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R15" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1792.045533638556</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1650.165597936235</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1465.397401855871</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1260.424262995137</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1063.902885828355</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>900.4255395950178</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>760.7326509483102</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1147.863273021029</v>
+        <v>1058.412742328024</v>
       </c>
       <c r="C16" t="n">
-        <v>975.890709899945</v>
+        <v>913.7427045492574</v>
       </c>
       <c r="D16" t="n">
-        <v>812.5739370267157</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E16" t="n">
-        <v>646.3657311795693</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F16" t="n">
-        <v>474.5039569541297</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G16" t="n">
-        <v>308.2469872483618</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H16" t="n">
-        <v>164.4507187565162</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I16" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>122.1734787209502</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K16" t="n">
-        <v>348.7010799267874</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L16" t="n">
-        <v>703.3904012212081</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>1094.576196191459</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>1472.067707067495</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>1827.495835747258</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>2118.095047669159</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>2245.09517790992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2245.09517790992</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S16" t="n">
-        <v>2245.09517790992</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T16" t="n">
-        <v>2001.75583013582</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U16" t="n">
-        <v>2001.75583013582</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="V16" t="n">
-        <v>2001.75583013582</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="W16" t="n">
-        <v>1726.903426308333</v>
+        <v>1717.485375904543</v>
       </c>
       <c r="X16" t="n">
-        <v>1564.372010043353</v>
+        <v>1474.921479350348</v>
       </c>
       <c r="Y16" t="n">
-        <v>1338.029241733095</v>
+        <v>1248.57871104009</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D17" t="n">
         <v>1690.508147261616</v>
@@ -5501,40 +5503,40 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K17" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L17" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M17" t="n">
-        <v>2110.0395278175</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N17" t="n">
-        <v>3086.290586304201</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O17" t="n">
-        <v>3931.435236455013</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P17" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291427</v>
@@ -5598,16 +5600,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L18" t="n">
-        <v>939.1015214887346</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M18" t="n">
-        <v>1194.79262694784</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N18" t="n">
-        <v>1194.79262694784</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O18" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P18" t="n">
         <v>1910.990343986338</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>888.2776948471594</v>
+        <v>684.0483191256287</v>
       </c>
       <c r="C19" t="n">
-        <v>769.9464360574118</v>
+        <v>512.0757560045447</v>
       </c>
       <c r="D19" t="n">
-        <v>606.6296631841825</v>
+        <v>512.0757560045447</v>
       </c>
       <c r="E19" t="n">
-        <v>440.421457337036</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="F19" t="n">
-        <v>268.5596831115964</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G19" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H19" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5698,25 +5700,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T19" t="n">
-        <v>1822.202732251165</v>
+        <v>2179.869272421301</v>
       </c>
       <c r="U19" t="n">
-        <v>1822.202732251165</v>
+        <v>1899.684823921605</v>
       </c>
       <c r="V19" t="n">
-        <v>1822.202732251165</v>
+        <v>1617.973356529634</v>
       </c>
       <c r="W19" t="n">
-        <v>1547.350328423678</v>
+        <v>1343.120952702147</v>
       </c>
       <c r="X19" t="n">
-        <v>1304.786431869483</v>
+        <v>1100.557056147952</v>
       </c>
       <c r="Y19" t="n">
-        <v>1078.443663559225</v>
+        <v>874.2142878376944</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
@@ -5738,40 +5740,40 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K20" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L20" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M20" t="n">
-        <v>3114.325629236558</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N20" t="n">
-        <v>4090.576687723259</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O20" t="n">
-        <v>4935.721337874071</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P20" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
         <v>5115.135670291427</v>
@@ -5829,22 +5831,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J21" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K21" t="n">
-        <v>730.647150085061</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L21" t="n">
-        <v>730.647150085061</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M21" t="n">
-        <v>730.647150085061</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N21" t="n">
-        <v>730.647150085061</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O21" t="n">
-        <v>730.647150085061</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P21" t="n">
         <v>1446.844867123559</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3205.84032174079</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C22" t="n">
-        <v>3033.867758619706</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D22" t="n">
-        <v>3033.867758619706</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E22" t="n">
-        <v>3033.867758619706</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M22" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N22" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O22" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>4945.000622810562</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T22" t="n">
-        <v>4701.661275036462</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U22" t="n">
-        <v>4421.476826536767</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V22" t="n">
-        <v>4139.765359144795</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W22" t="n">
-        <v>3864.912955317308</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X22" t="n">
-        <v>3622.349058763114</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y22" t="n">
-        <v>3396.006290452855</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="23">
@@ -5987,28 +5989,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P23" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q23" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>976.2853050154449</v>
+        <v>603.8002552472883</v>
       </c>
       <c r="C25" t="n">
-        <v>804.3127418943609</v>
+        <v>431.8276921262043</v>
       </c>
       <c r="D25" t="n">
-        <v>640.9959690211316</v>
+        <v>268.510919252975</v>
       </c>
       <c r="E25" t="n">
-        <v>474.7877631739851</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F25" t="n">
-        <v>302.9259889485455</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6172,25 +6174,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T25" t="n">
-        <v>2039.376393044857</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U25" t="n">
-        <v>1759.191944545161</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V25" t="n">
-        <v>1477.48047715319</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.628073325703</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X25" t="n">
-        <v>1202.628073325703</v>
+        <v>1020.308992269612</v>
       </c>
       <c r="Y25" t="n">
-        <v>976.2853050154449</v>
+        <v>793.966223959354</v>
       </c>
     </row>
     <row r="26">
@@ -6309,16 +6311,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L27" t="n">
-        <v>939.1015214887346</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>939.1015214887346</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N27" t="n">
-        <v>939.1015214887346</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="O27" t="n">
-        <v>1828.582799500206</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P27" t="n">
         <v>1910.990343986338</v>
@@ -6358,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>543.5554397491844</v>
+        <v>778.6022263052722</v>
       </c>
       <c r="C28" t="n">
-        <v>371.5828766281004</v>
+        <v>606.6296631841882</v>
       </c>
       <c r="D28" t="n">
-        <v>371.5828766281004</v>
+        <v>606.6296631841882</v>
       </c>
       <c r="E28" t="n">
-        <v>371.5828766281004</v>
+        <v>440.4214573370417</v>
       </c>
       <c r="F28" t="n">
-        <v>268.5596831115964</v>
+        <v>268.5596831116021</v>
       </c>
       <c r="G28" t="n">
         <v>102.3027134058285</v>
@@ -6409,25 +6411,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T28" t="n">
-        <v>2039.376393044857</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U28" t="n">
-        <v>1759.191944545161</v>
+        <v>1712.527263709278</v>
       </c>
       <c r="V28" t="n">
-        <v>1477.48047715319</v>
+        <v>1712.527263709278</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.628073325703</v>
+        <v>1437.674859881791</v>
       </c>
       <c r="X28" t="n">
-        <v>960.064176771508</v>
+        <v>1195.110963327596</v>
       </c>
       <c r="Y28" t="n">
-        <v>733.72140846125</v>
+        <v>968.7681950173378</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6449,13 +6451,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
@@ -6479,10 +6481,10 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6497,7 +6499,7 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V29" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W29" t="n">
         <v>3777.607131232208</v>
@@ -6549,7 +6551,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>1158.289251381874</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N30" t="n">
         <v>1910.990343986338</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3707.899291063543</v>
+        <v>1051.553678763535</v>
       </c>
       <c r="C31" t="n">
-        <v>3535.926727942459</v>
+        <v>879.5811156424509</v>
       </c>
       <c r="D31" t="n">
-        <v>3372.60995506923</v>
+        <v>716.2643427692216</v>
       </c>
       <c r="E31" t="n">
-        <v>3372.60995506923</v>
+        <v>550.0561369220751</v>
       </c>
       <c r="F31" t="n">
-        <v>3200.748180843791</v>
+        <v>378.1943626966355</v>
       </c>
       <c r="G31" t="n">
-        <v>3034.491211138023</v>
+        <v>211.9373929908676</v>
       </c>
       <c r="H31" t="n">
-        <v>3034.491211138023</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I31" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M31" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N31" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O31" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P31" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q31" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818951</v>
       </c>
       <c r="R31" t="n">
-        <v>5115.135670291427</v>
+        <v>2235.677127506125</v>
       </c>
       <c r="S31" t="n">
-        <v>4945.000622810562</v>
+        <v>2235.677127506125</v>
       </c>
       <c r="T31" t="n">
-        <v>4701.661275036462</v>
+        <v>1992.337779732025</v>
       </c>
       <c r="U31" t="n">
-        <v>4641.824328467549</v>
+        <v>1992.337779732025</v>
       </c>
       <c r="V31" t="n">
-        <v>4641.824328467549</v>
+        <v>1710.626312340053</v>
       </c>
       <c r="W31" t="n">
-        <v>4366.971924640062</v>
+        <v>1710.626312340053</v>
       </c>
       <c r="X31" t="n">
-        <v>4124.408028085867</v>
+        <v>1468.062415785859</v>
       </c>
       <c r="Y31" t="n">
-        <v>3898.065259775609</v>
+        <v>1241.719647475601</v>
       </c>
     </row>
     <row r="32">
@@ -6701,25 +6703,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K32" t="n">
-        <v>651.5495334576516</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L32" t="n">
-        <v>1581.174581076928</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M32" t="n">
-        <v>2585.460682495986</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N32" t="n">
-        <v>3561.711740982687</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O32" t="n">
-        <v>4406.8563911335</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6780,22 +6782,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K33" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L33" t="n">
-        <v>1529.586448057074</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M33" t="n">
-        <v>1529.586448057074</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N33" t="n">
-        <v>1529.586448057074</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O33" t="n">
-        <v>1529.586448057074</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P33" t="n">
-        <v>1529.586448057074</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q33" t="n">
         <v>1910.990343986338</v>
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>913.8534934449018</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>741.8809303238178</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>578.5641574505885</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>412.355951603442</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
         <v>102.3027134058285</v>
@@ -6883,25 +6885,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2184.107129650221</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>1940.767781876121</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>1660.583333376426</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>1378.871865984454</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>1104.019462156967</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>1104.019462156967</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>1104.019462156967</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6935,46 +6937,46 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.906172222724</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K35" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L35" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M35" t="n">
-        <v>3105.626261478502</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N35" t="n">
-        <v>3105.626261478502</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O35" t="n">
-        <v>3950.770911629314</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P35" t="n">
-        <v>4659.050190787242</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164566</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U35" t="n">
-        <v>4531.487895805611</v>
+        <v>4531.487895805613</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.99848093186</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232207</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X35" t="n">
         <v>3365.887132399955</v>
@@ -7005,7 +7007,7 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G36" t="n">
-        <v>155.6788066435189</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H36" t="n">
         <v>102.3027134058285</v>
@@ -7020,10 +7022,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M36" t="n">
-        <v>1158.289251381874</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N36" t="n">
         <v>1910.990343986338</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>753.250092117427</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C37" t="n">
-        <v>581.277528996343</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D37" t="n">
-        <v>417.9607561231137</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E37" t="n">
-        <v>417.9607561231137</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F37" t="n">
-        <v>246.0989818976741</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
-        <v>246.0989818976741</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
         <v>102.3027134058285</v>
@@ -7093,10 +7095,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7117,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T37" t="n">
-        <v>2065.542080025265</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U37" t="n">
-        <v>1785.357631525569</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V37" t="n">
-        <v>1687.175129521432</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W37" t="n">
-        <v>1412.322725693945</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X37" t="n">
-        <v>1169.758829139751</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y37" t="n">
-        <v>943.4160608294926</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="38">
@@ -7154,70 +7156,70 @@
         <v>2113.800768076615</v>
       </c>
       <c r="D38" t="n">
-        <v>1690.508147261615</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409473</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988729</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>464.906172222724</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K38" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L38" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M38" t="n">
-        <v>2837.654482149729</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N38" t="n">
-        <v>3813.90554063643</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O38" t="n">
-        <v>4659.050190787242</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P38" t="n">
-        <v>4659.050190787242</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164566</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
-        <v>4531.487895805611</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.99848093186</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232207</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
         <v>3365.887132399955</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354845</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3873.571530742372</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C39" t="n">
-        <v>3756.065627259876</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D39" t="n">
-        <v>3652.225668775161</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E39" t="n">
-        <v>3547.523735048099</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F39" t="n">
-        <v>3453.877904731003</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G39" t="n">
-        <v>3359.824132948607</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H39" t="n">
-        <v>3306.448039710917</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>3313.894682672829</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>3313.894682672829</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>3679.489605332472</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L39" t="n">
-        <v>3679.489605332472</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M39" t="n">
-        <v>3679.489605332472</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="N39" t="n">
-        <v>3679.489605332472</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="O39" t="n">
-        <v>4568.970883343944</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="P39" t="n">
-        <v>4568.970883343944</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="Q39" t="n">
-        <v>5033.116360206723</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R39" t="n">
-        <v>5115.135670291425</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S39" t="n">
-        <v>5033.81142285268</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T39" t="n">
-        <v>4891.931487150358</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U39" t="n">
-        <v>4707.163291069995</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V39" t="n">
-        <v>4502.190152209262</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W39" t="n">
-        <v>4305.668775042479</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X39" t="n">
-        <v>4142.191428809142</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y39" t="n">
-        <v>4002.498540162434</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="40">
@@ -7306,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C40" t="n">
-        <v>1013.511272808981</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D40" t="n">
-        <v>850.194499935752</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E40" t="n">
-        <v>683.9862940886055</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>512.1245198631659</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>345.8675501573981</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655525</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7357,25 +7359,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T40" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U40" t="n">
-        <v>2002.531292319261</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V40" t="n">
-        <v>1720.81982492729</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W40" t="n">
-        <v>1445.967421099803</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X40" t="n">
-        <v>1445.967421099803</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y40" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2468.184063897751</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C41" t="n">
-        <v>2041.283333911051</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D41" t="n">
-        <v>1617.990713096051</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E41" t="n">
-        <v>1192.013773243908</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>766.8895914333086</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G41" t="n">
-        <v>362.5505290227573</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H41" t="n">
-        <v>64.68215049679213</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I41" t="n">
-        <v>64.68215049679213</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>64.68215049679213</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K41" t="n">
-        <v>780.1904584722912</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L41" t="n">
-        <v>1059.582485657915</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M41" t="n">
-        <v>1860.024098055718</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N41" t="n">
-        <v>1860.024098055718</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O41" t="n">
-        <v>2660.46571045352</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P41" t="n">
-        <v>2660.46571045352</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q41" t="n">
-        <v>3116.551189957704</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R41" t="n">
-        <v>3234.107524839606</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S41" t="n">
-        <v>3234.107524839606</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T41" t="n">
-        <v>3013.18195388424</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U41" t="n">
-        <v>3013.18195388424</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>3013.18195388424</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W41" t="n">
-        <v>2616.790604184586</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X41" t="n">
-        <v>2468.184063897751</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y41" t="n">
-        <v>2468.184063897751</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>631.8056415282474</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C42" t="n">
-        <v>514.2997380457522</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D42" t="n">
-        <v>410.4597795610372</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E42" t="n">
-        <v>305.7578458339744</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F42" t="n">
-        <v>212.1120155168786</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G42" t="n">
-        <v>118.0582437344825</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H42" t="n">
-        <v>64.68215049679213</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>64.68215049679213</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J42" t="n">
-        <v>336.3796397763832</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K42" t="n">
-        <v>926.8645663447228</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L42" t="n">
-        <v>1727.306178742525</v>
+        <v>390.8583291475138</v>
       </c>
       <c r="M42" t="n">
-        <v>1727.306178742525</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="N42" t="n">
-        <v>1727.306178742525</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O42" t="n">
-        <v>1727.306178742525</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P42" t="n">
-        <v>1873.369781077302</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q42" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R42" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S42" t="n">
-        <v>1792.045533638556</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T42" t="n">
-        <v>1650.165597936235</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U42" t="n">
-        <v>1465.397401855871</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V42" t="n">
-        <v>1260.424262995137</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W42" t="n">
-        <v>1063.902885828355</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X42" t="n">
-        <v>900.4255395950178</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y42" t="n">
-        <v>760.7326509483102</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1048.094704761305</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C43" t="n">
-        <v>876.122141640221</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D43" t="n">
-        <v>712.8053687669917</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E43" t="n">
-        <v>546.5971629198452</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F43" t="n">
-        <v>374.7353886944056</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G43" t="n">
-        <v>208.4784189886377</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H43" t="n">
-        <v>64.68215049679213</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I43" t="n">
-        <v>64.68215049679213</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>122.1734787209502</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K43" t="n">
-        <v>348.7010799267873</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L43" t="n">
-        <v>703.3904012212081</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M43" t="n">
-        <v>1094.576196191459</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N43" t="n">
-        <v>1472.067707067495</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O43" t="n">
-        <v>1827.495835747258</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P43" t="n">
-        <v>2118.095047669159</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q43" t="n">
-        <v>2245.09517790992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2245.09517790992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S43" t="n">
-        <v>2245.09517790992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T43" t="n">
-        <v>2001.75583013582</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U43" t="n">
-        <v>2001.75583013582</v>
+        <v>2002.531292319261</v>
       </c>
       <c r="V43" t="n">
-        <v>1982.01974216531</v>
+        <v>2002.531292319261</v>
       </c>
       <c r="W43" t="n">
-        <v>1707.167338337823</v>
+        <v>1727.678888491774</v>
       </c>
       <c r="X43" t="n">
-        <v>1464.603441783629</v>
+        <v>1485.114991937579</v>
       </c>
       <c r="Y43" t="n">
-        <v>1238.260673473371</v>
+        <v>1258.772223627321</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1825.274116017153</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C44" t="n">
-        <v>1398.373386030453</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D44" t="n">
-        <v>975.0807652154533</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E44" t="n">
-        <v>549.1038253633109</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>123.9796435527111</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G44" t="n">
-        <v>64.68215049679213</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H44" t="n">
-        <v>64.68215049679213</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I44" t="n">
-        <v>64.68215049679213</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>64.68215049679213</v>
+        <v>195.4640539534684</v>
       </c>
       <c r="K44" t="n">
-        <v>64.68215049679213</v>
+        <v>195.4640539534684</v>
       </c>
       <c r="L44" t="n">
-        <v>865.1237628945947</v>
+        <v>1125.089101572745</v>
       </c>
       <c r="M44" t="n">
-        <v>865.1237628945947</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N44" t="n">
-        <v>1665.565375292397</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O44" t="n">
-        <v>2466.0069876902</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P44" t="n">
-        <v>3174.286266848128</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q44" t="n">
-        <v>3234.107524839606</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R44" t="n">
-        <v>3234.107524839606</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S44" t="n">
-        <v>3129.740230712747</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T44" t="n">
-        <v>2908.81465975738</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U44" t="n">
-        <v>2650.459750353793</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>2650.459750353793</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W44" t="n">
-        <v>2650.459750353793</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
-        <v>2650.459750353793</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y44" t="n">
-        <v>2245.122480308683</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>631.8056415282474</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C45" t="n">
-        <v>514.2997380457522</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D45" t="n">
-        <v>410.4597795610372</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E45" t="n">
-        <v>305.7578458339744</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>212.1120155168786</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>118.0582437344825</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H45" t="n">
-        <v>64.68215049679213</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>64.68215049679213</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J45" t="n">
-        <v>64.68215049679213</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K45" t="n">
-        <v>64.68215049679213</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L45" t="n">
-        <v>64.68215049679213</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M45" t="n">
-        <v>64.68215049679213</v>
+        <v>357.5299206506891</v>
       </c>
       <c r="N45" t="n">
-        <v>64.68215049679213</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O45" t="n">
-        <v>611.0072770913214</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P45" t="n">
-        <v>1327.204994129819</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q45" t="n">
-        <v>1791.350470992599</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R45" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S45" t="n">
-        <v>1792.045533638556</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T45" t="n">
-        <v>1650.165597936235</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U45" t="n">
-        <v>1465.397401855871</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V45" t="n">
-        <v>1260.424262995137</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W45" t="n">
-        <v>1063.902885828355</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>900.4255395950178</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y45" t="n">
-        <v>760.7326509483102</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1147.863273021029</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C46" t="n">
-        <v>975.8907098999449</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D46" t="n">
-        <v>812.5739370267156</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E46" t="n">
-        <v>646.3657311795691</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F46" t="n">
-        <v>474.5039569541296</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G46" t="n">
-        <v>308.2469872483617</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H46" t="n">
-        <v>164.4507187565162</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I46" t="n">
-        <v>64.68215049679213</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>122.1734787209502</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K46" t="n">
-        <v>348.7010799267873</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L46" t="n">
-        <v>703.3904012212081</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M46" t="n">
-        <v>1094.576196191459</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N46" t="n">
-        <v>1472.067707067495</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O46" t="n">
-        <v>1827.495835747258</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P46" t="n">
-        <v>2118.095047669159</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q46" t="n">
-        <v>2245.09517790992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2198.056564597094</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S46" t="n">
-        <v>2198.056564597094</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T46" t="n">
-        <v>2198.056564597094</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U46" t="n">
-        <v>2088.647373989518</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V46" t="n">
-        <v>1806.935906597547</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W46" t="n">
-        <v>1806.935906597547</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X46" t="n">
-        <v>1564.372010043352</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y46" t="n">
-        <v>1338.029241733095</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>519.5412919487776</v>
       </c>
       <c r="L2" t="n">
-        <v>453.322231905261</v>
+        <v>136.2760805936069</v>
       </c>
       <c r="M2" t="n">
-        <v>593.6590760150259</v>
+        <v>521.2079540534</v>
       </c>
       <c r="N2" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>593.8031749258255</v>
+        <v>521.3520529641995</v>
       </c>
       <c r="Q2" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8061,25 +8063,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>506.2917778681978</v>
       </c>
       <c r="M3" t="n">
-        <v>463.1564485244919</v>
+        <v>506.8734716662962</v>
       </c>
       <c r="N3" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>577.9986543204228</v>
+        <v>55.0511501629894</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8134,13 +8136,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517321</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K4" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
-        <v>380.1908016072373</v>
+        <v>93.31363181978961</v>
       </c>
       <c r="M4" t="n">
         <v>417.7126065281028</v>
@@ -8213,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
         <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
-        <v>593.5074359500402</v>
+        <v>452.289812307084</v>
       </c>
       <c r="O5" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>300.5986134498011</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,25 +8294,25 @@
         <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N6" t="n">
         <v>577.5708413291358</v>
       </c>
       <c r="O6" t="n">
-        <v>463.2315577343861</v>
+        <v>181.4456529820153</v>
       </c>
       <c r="P6" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
         <v>22.7470382889785</v>
@@ -8371,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>78.70880469517259</v>
+        <v>78.70880469517321</v>
       </c>
       <c r="K7" t="n">
         <v>249.7804132464869</v>
@@ -8453,16 +8455,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>301.3352940721928</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>593.6590760150259</v>
+        <v>181.710741931019</v>
       </c>
       <c r="N8" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
         <v>37.3909593560241</v>
@@ -8474,7 +8476,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,28 +8531,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>180.7888499740227</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N9" t="n">
         <v>577.5708413291358</v>
       </c>
       <c r="O9" t="n">
-        <v>550.6255558370718</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
         <v>23.67291939414415</v>
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L11" t="n">
-        <v>846.8389236425249</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>845.8065040443481</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>845.9178405659261</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>233.9983140964142</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>496.8170781441769</v>
+        <v>105.9095497086638</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8772,16 +8774,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>766.5034997476797</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N12" t="n">
-        <v>21.34302821354166</v>
+        <v>507.2052537942219</v>
       </c>
       <c r="O12" t="n">
-        <v>831.6987709321243</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
@@ -8924,25 +8926,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K14" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L14" t="n">
-        <v>47.35335718878927</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>845.8065040443481</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>753.0089771212694</v>
+        <v>728.3675687028222</v>
       </c>
       <c r="Q14" t="n">
         <v>496.8170781441769</v>
@@ -9003,31 +9005,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>447.3247369658321</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>23.17188972222222</v>
+        <v>383.4213315400418</v>
       </c>
       <c r="P15" t="n">
         <v>745.2028786174529</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
@@ -9170,7 +9172,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
@@ -9179,13 +9181,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>653.7961895378362</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q17" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9246,19 +9248,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>281.3706244104145</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>21.34302821354166</v>
+        <v>949.8342934347922</v>
       </c>
       <c r="O18" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P18" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
         <v>22.7470382889785</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
@@ -9416,13 +9418,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>218.8019602116015</v>
+        <v>466.324307620685</v>
       </c>
       <c r="Q20" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,10 +9479,10 @@
         <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
-        <v>382.6486756511529</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
@@ -9489,13 +9491,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>21.34302821354166</v>
+        <v>783.0169950311082</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
         <v>491.5808533018869</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9653,13 +9655,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>466.324307620685</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q23" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9957,19 +9959,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N27" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>921.6378271075471</v>
+        <v>783.4760236661258</v>
       </c>
       <c r="P27" t="n">
-        <v>105.0107851302144</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
         <v>22.7470382889785</v>
@@ -10127,13 +10129,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>585.0680802286672</v>
+        <v>466.324307620685</v>
       </c>
       <c r="Q29" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10197,10 +10199,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>1089.749849175</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N30" t="n">
-        <v>781.6471621574452</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
@@ -10349,7 +10351,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
-        <v>590.5593685239236</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
         <v>977.3272420480539</v>
@@ -10364,13 +10366,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>753.0089771212694</v>
+        <v>466.324307620685</v>
       </c>
       <c r="Q32" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,7 +10430,7 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K33" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
         <v>867.7664080100944</v>
@@ -10437,7 +10439,7 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>21.34302821354166</v>
+        <v>1003.048909524252</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
@@ -10446,7 +10448,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
-        <v>408.0034988235887</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R33" t="n">
         <v>23.67291939414415</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10592,19 +10594,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1043.074428213576</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N35" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q35" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
         <v>35.03264989479647</v>
@@ -10668,13 +10670,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M36" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>781.6471621574452</v>
+        <v>1003.048909524252</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
@@ -10829,7 +10831,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>772.395863235017</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
         <v>1023.391803124043</v>
@@ -10838,10 +10840,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>37.5753618102313</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q38" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R38" t="n">
         <v>35.03264989479647</v>
@@ -10899,13 +10901,13 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>391.6870344996395</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M39" t="n">
         <v>23.09678051232798</v>
@@ -10914,13 +10916,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
-        <v>491.5808533018869</v>
+        <v>43.1919409183301</v>
       </c>
       <c r="R39" t="n">
         <v>106.5207073584907</v>
@@ -11060,22 +11062,22 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K41" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L41" t="n">
-        <v>320.5262113069906</v>
+        <v>952.6858336296069</v>
       </c>
       <c r="M41" t="n">
-        <v>845.9581441093334</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>845.9178405659256</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
         <v>496.8170781441769</v>
@@ -11133,19 +11135,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>831.0419679241312</v>
+        <v>32.02163570431277</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N42" t="n">
         <v>21.34302821354166</v>
@@ -11154,10 +11156,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>169.3098334621787</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>123.5223236751217</v>
       </c>
       <c r="K44" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L44" t="n">
-        <v>846.8389236425245</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>845.8065040443477</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>845.9178405659256</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>96.55018772730399</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
         <v>35.03264989479647</v>
@@ -11382,22 +11384,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>23.09678051232798</v>
+        <v>280.9020403556215</v>
       </c>
       <c r="N45" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O45" t="n">
-        <v>575.0154519389184</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23264,10 +23266,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>44.48163749509817</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23318,10 +23320,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,22 +23418,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>6.907518586237046</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>98.77088257712678</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>144.83731275994</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23501,7 +23503,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23513,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>35.69871890914106</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23653,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>27.02950008889374</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>168.4336970060565</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>79.23215548632211</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>53.10489128802303</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,16 +23940,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>185.6561777623783</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24136,7 +24138,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>71.9894918991921</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
@@ -24175,7 +24177,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24373,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>64.74823979854719</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24414,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>228.0760643491793</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24607,10 +24609,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>68.15019490184626</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24649,16 +24651,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>122.2356629785318</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24844,7 +24846,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>132.5908555948652</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>218.144026911475</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25078,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
         <v>98.77088257712678</v>
@@ -25123,7 +25125,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>70.81117194900837</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25138,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25315,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
@@ -25327,7 +25329,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
         <v>98.77088257712678</v>
@@ -25357,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>181.6936757339558</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25403,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25552,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,10 +25599,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25612,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>154.46490033406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25646,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>260.4823239599629</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>115.7088052046616</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,13 +25839,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>259.3556256272465</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25877,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>341.5911536610861</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25922,13 +25924,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>169.067505313199</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>71.98949189919244</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>619617.5807312113</v>
+        <v>615159.5095127143</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>470007.5169283992</v>
+        <v>633876.3234469155</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>470007.5169283993</v>
+        <v>633876.3234469155</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>633876.3234469155</v>
+        <v>633876.3234469156</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>633876.3234469155</v>
+        <v>633876.3234469154</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>633876.3234469155</v>
+        <v>633876.3234469154</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>633876.3234469156</v>
+        <v>633876.3234469155</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>470007.516928399</v>
+        <v>633876.3234469156</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>470007.516928399</v>
+        <v>633876.3234469155</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>451393.0677086514</v>
+        <v>451393.0677086512</v>
       </c>
       <c r="C2" t="n">
-        <v>451393.0677086512</v>
+        <v>451393.0677086515</v>
       </c>
       <c r="D2" t="n">
-        <v>451393.0677086512</v>
+        <v>451393.0677086513</v>
       </c>
       <c r="E2" t="n">
-        <v>322990.946802128</v>
+        <v>435573.5624315216</v>
       </c>
       <c r="F2" t="n">
-        <v>322990.9468021281</v>
+        <v>435573.5624315217</v>
       </c>
       <c r="G2" t="n">
-        <v>435573.5624315216</v>
+        <v>435573.5624315215</v>
       </c>
       <c r="H2" t="n">
-        <v>435573.5624315216</v>
+        <v>435573.5624315217</v>
       </c>
       <c r="I2" t="n">
         <v>435573.5624315217</v>
       </c>
       <c r="J2" t="n">
-        <v>435573.5624315212</v>
+        <v>435573.5624315213</v>
       </c>
       <c r="K2" t="n">
         <v>435573.5624315215</v>
       </c>
       <c r="L2" t="n">
-        <v>435573.5624315212</v>
+        <v>435573.5624315217</v>
       </c>
       <c r="M2" t="n">
         <v>435573.5624315217</v>
       </c>
       <c r="N2" t="n">
-        <v>435573.5624315214</v>
+        <v>435573.5624315217</v>
       </c>
       <c r="O2" t="n">
-        <v>322990.946802128</v>
+        <v>435573.5624315215</v>
       </c>
       <c r="P2" t="n">
-        <v>322990.946802128</v>
+        <v>435573.5624315217</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>186404.7334147372</v>
+        <v>162124.6960695913</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23406.83367361215</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>75330.9511534623</v>
+        <v>215739.3565566406</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>128890.3998115405</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>145533.6699348165</v>
+        <v>126577.2685802888</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>18646.60035701974</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>62873.93696537382</v>
+        <v>180063.8714551677</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>191243.7287526203</v>
+        <v>203366.9722795535</v>
       </c>
       <c r="C4" t="n">
         <v>191243.7287526203</v>
@@ -26424,40 +26426,40 @@
         <v>191243.7287526203</v>
       </c>
       <c r="E4" t="n">
-        <v>64241.80185904329</v>
+        <v>86696.74064784778</v>
       </c>
       <c r="F4" t="n">
-        <v>64241.80185904329</v>
+        <v>86696.74064784776</v>
       </c>
       <c r="G4" t="n">
         <v>86696.74064784776</v>
       </c>
       <c r="H4" t="n">
-        <v>86696.74064784772</v>
+        <v>86696.74064784776</v>
       </c>
       <c r="I4" t="n">
+        <v>86696.74064784778</v>
+      </c>
+      <c r="J4" t="n">
+        <v>86696.74064784769</v>
+      </c>
+      <c r="K4" t="n">
+        <v>86696.74064784771</v>
+      </c>
+      <c r="L4" t="n">
+        <v>86696.74064784778</v>
+      </c>
+      <c r="M4" t="n">
+        <v>86696.74064784771</v>
+      </c>
+      <c r="N4" t="n">
+        <v>86696.74064784778</v>
+      </c>
+      <c r="O4" t="n">
         <v>86696.74064784776</v>
       </c>
-      <c r="J4" t="n">
-        <v>86696.74064784776</v>
-      </c>
-      <c r="K4" t="n">
-        <v>86696.74064784772</v>
-      </c>
-      <c r="L4" t="n">
-        <v>86696.74064784776</v>
-      </c>
-      <c r="M4" t="n">
-        <v>86696.74064784775</v>
-      </c>
-      <c r="N4" t="n">
-        <v>86696.74064784774</v>
-      </c>
-      <c r="O4" t="n">
-        <v>64241.80185904326</v>
-      </c>
       <c r="P4" t="n">
-        <v>64241.80185904327</v>
+        <v>86696.74064784778</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67446.25103742813</v>
+        <v>63041.22282216126</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26476,10 +26478,10 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>49158.43437756204</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="F5" t="n">
-        <v>49158.43437756204</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26500,16 +26502,16 @@
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>49158.43437756201</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="P5" t="n">
-        <v>49158.43437756201</v>
+        <v>77750.06218842969</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6298.354503865732</v>
+        <v>22860.17653734524</v>
       </c>
       <c r="C6" t="n">
-        <v>192703.0879186028</v>
+        <v>169296.2542449909</v>
       </c>
       <c r="D6" t="n">
-        <v>192703.0879186028</v>
+        <v>192703.0879186029</v>
       </c>
       <c r="E6" t="n">
-        <v>134259.7594120603</v>
+        <v>55387.40303860356</v>
       </c>
       <c r="F6" t="n">
-        <v>209590.7105655227</v>
+        <v>271126.7595952442</v>
       </c>
       <c r="G6" t="n">
-        <v>142236.3597837036</v>
+        <v>271126.7595952441</v>
       </c>
       <c r="H6" t="n">
         <v>271126.7595952442</v>
@@ -26543,25 +26545,25 @@
         <v>271126.7595952442</v>
       </c>
       <c r="J6" t="n">
-        <v>125593.0896604273</v>
+        <v>144549.4910149551</v>
       </c>
       <c r="K6" t="n">
-        <v>271126.7595952441</v>
+        <v>252480.1592382244</v>
       </c>
       <c r="L6" t="n">
-        <v>271126.7595952438</v>
+        <v>271126.7595952442</v>
       </c>
       <c r="M6" t="n">
-        <v>208252.8226298704</v>
+        <v>91062.88814007661</v>
       </c>
       <c r="N6" t="n">
-        <v>271126.7595952441</v>
+        <v>271126.7595952442</v>
       </c>
       <c r="O6" t="n">
-        <v>209590.7105655227</v>
+        <v>271126.759595244</v>
       </c>
       <c r="P6" t="n">
-        <v>209590.7105655227</v>
+        <v>271126.7595952442</v>
       </c>
     </row>
   </sheetData>
@@ -26787,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -26796,10 +26798,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>808.5268812099021</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="F4" t="n">
-        <v>808.5268812099021</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26820,16 +26822,16 @@
         <v>1278.783917572857</v>
       </c>
       <c r="M4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="N4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>808.5268812099016</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="P4" t="n">
-        <v>808.5268812099016</v>
+        <v>1278.783917572857</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>72.45112196162592</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>252.299068094308</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>470.2570363629548</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162592</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943075</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162592</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.299068094308</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>470.2570363629548</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>266.2210958770903</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27439,13 +27441,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>377.4802179710694</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>170.2528374898731</v>
@@ -27546,13 +27548,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>80.09821193832332</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27597,13 +27599,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>185.0411840743709</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>279.9424765091179</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>46.25593661269649</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
@@ -27676,10 +27678,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27774,10 +27776,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>90.77286840263233</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
         <v>164.546123788675</v>
@@ -27786,13 +27788,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27840,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>203.2106128361668</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>290.4897201912252</v>
+        <v>115.5631513979318</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,7 +27873,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
         <v>170.2528374898731</v>
@@ -28020,16 +28022,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>165.7641609568373</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>44.09496021624675</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28855,7 +28857,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>-7.6250157187155e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29572,7 +29574,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>-1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="L2" t="n">
-        <v>415.010189472638</v>
+        <v>97.96403816098399</v>
       </c>
       <c r="M2" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="N2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34781,25 +34783,25 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="M3" t="n">
-        <v>440.0596680121639</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="N3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>556.2278131155941</v>
+        <v>33.28030895816074</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127134</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K4" t="n">
         <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
-        <v>358.2720417115361</v>
+        <v>71.39487192408838</v>
       </c>
       <c r="M4" t="n">
         <v>395.137166636617</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="N5" t="n">
-        <v>556.2278131155941</v>
+        <v>415.010189472638</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>263.0232516395698</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N6" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="O6" t="n">
-        <v>440.0596680121639</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="P6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35091,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127134</v>
       </c>
       <c r="K7" t="n">
         <v>228.8157587937749</v>
@@ -35173,16 +35175,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
-        <v>263.0232516395698</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
-        <v>556.2278131155941</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="N8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -35194,7 +35196,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N9" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="O9" t="n">
-        <v>527.4536661148496</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q9" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>808.5268812099021</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>808.5268812099021</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>808.5268812099021</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>196.4229522861829</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>460.6924035395789</v>
+        <v>69.78487510406572</v>
       </c>
       <c r="R11" t="n">
         <v>118.7437726079824</v>
@@ -35492,16 +35494,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>743.9884130334501</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>485.8622255806802</v>
       </c>
       <c r="O12" t="n">
-        <v>808.5268812099021</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35644,25 +35646,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>9.041314756166345</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>808.5268812099021</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>715.433615311038</v>
+        <v>690.7922068925909</v>
       </c>
       <c r="Q14" t="n">
         <v>460.6924035395789</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>424.2279564535041</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>360.2494418178196</v>
       </c>
       <c r="P15" t="n">
         <v>723.4320374126243</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
@@ -35890,7 +35892,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
@@ -35899,13 +35901,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>616.220827727605</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q17" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,19 +35968,19 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>258.2738438980865</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P18" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
@@ -36136,13 +36138,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>181.2265984013702</v>
+        <v>428.7489458104537</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>360.2494418178196</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36209,13 +36211,13 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>761.6739668175666</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>468.8338150129084</v>
@@ -36355,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36373,13 +36375,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>428.7489458104537</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36677,19 +36679,19 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>898.4659373853249</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="P27" t="n">
-        <v>83.23994392538575</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36847,13 +36849,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>547.4927184184359</v>
+        <v>428.7489458104537</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,10 +36919,10 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1066.653068662672</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N30" t="n">
-        <v>760.3041339439036</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -37008,7 +37010,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q31" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391478</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,7 +37071,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>554.7947677291143</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
         <v>939.015199615431</v>
@@ -37084,13 +37086,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>715.433615311038</v>
+        <v>428.7489458104537</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>845.2513212958648</v>
@@ -37157,7 +37159,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>981.7058813107108</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37166,7 +37168,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>385.2564605346102</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37312,19 +37314,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1005.643165314144</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q35" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37388,13 +37390,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M36" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>760.3041339439036</v>
+        <v>981.7058813107108</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
@@ -37549,7 +37551,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>734.9646003355853</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
         <v>986.1121802895968</v>
@@ -37558,10 +37560,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q38" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,13 +37621,13 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>369.2878006663062</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37634,13 +37636,13 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>468.8338150129084</v>
+        <v>20.4449026293516</v>
       </c>
       <c r="R39" t="n">
         <v>82.84778796434657</v>
@@ -37780,22 +37782,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>282.2141688743677</v>
+        <v>914.373791196984</v>
       </c>
       <c r="M41" t="n">
-        <v>808.5268812099016</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>808.5268812099016</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
         <v>460.6924035395789</v>
@@ -37853,19 +37855,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>808.5268812099016</v>
+        <v>9.506548990083218</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -37874,10 +37876,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>147.53899225735</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>94.10236418953517</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>808.5268812099016</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>808.5268812099016</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>808.5268812099016</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>60.42551312270595</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38102,22 +38104,22 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>257.8052598432935</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O45" t="n">
-        <v>551.8435622166962</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_6_31.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_6_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1595513.576160967</v>
+        <v>1594816.914955876</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11843801.51954497</v>
+        <v>11843801.51954496</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>612367.9462114762</v>
+        <v>612367.9462114756</v>
       </c>
     </row>
     <row r="9">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>346.7247457751769</v>
       </c>
       <c r="D2" t="n">
-        <v>152.8385987297594</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -715,10 +715,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>5.359340506947765</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,10 +867,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>160.8077423580357</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
         <v>277.3826040146988</v>
@@ -879,13 +879,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>135.7074041394968</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
         <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>112.117309734029</v>
       </c>
       <c r="F5" t="n">
         <v>420.8729399924937</v>
@@ -913,10 +913,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1056,16 +1056,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>79.47996908724082</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0.8056189209971626</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.64988064861473</v>
+        <v>30.59709888020254</v>
       </c>
       <c r="C8" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>306.1540190556892</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
         <v>1.283897344658556</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>4.378995526347924</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
@@ -1341,16 +1341,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>115.1055716303386</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486148</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068506</v>
+        <v>419.0596946068491</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536211</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924938</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864459</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407065</v>
       </c>
       <c r="I11" t="n">
         <v>34.5479025439635</v>
@@ -1429,7 +1429,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250131</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>23.59638424611652</v>
+        <v>53.34794211614948</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
@@ -1590,10 +1590,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -1609,25 +1609,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>422.6317226868337</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536211</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924938</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864459</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407056</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396354</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,19 +1660,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458144</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7713603095519</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250131</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439303</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1767,25 +1767,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>143.2233374009794</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>48.88504713176382</v>
       </c>
       <c r="H16" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,16 +1821,16 @@
         <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1900,7 +1900,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
-        <v>255.7713603095518</v>
+        <v>255.771360309553</v>
       </c>
       <c r="V17" t="n">
         <v>353.914520725013</v>
@@ -2007,19 +2007,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>98.77088257712678</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>55.24977653398075</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>82.29514422336366</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
@@ -2070,7 +2070,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486159</v>
       </c>
       <c r="C20" t="n">
         <v>422.6317226868329</v>
@@ -2481,13 +2481,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2541,7 +2541,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>12.06219323947358</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
         <v>224.0793406271554</v>
@@ -2721,13 +2721,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087158</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>155.1469410361669</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
@@ -2955,22 +2955,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>9.767450212061895</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
@@ -3325,7 +3325,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V35" t="n">
-        <v>353.9145207250144</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
         <v>392.4274362026566</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>121.8718498202627</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
@@ -3432,10 +3432,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>96.44420510686429</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
         <v>240.905954296359</v>
@@ -3520,7 +3520,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H38" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407063</v>
       </c>
       <c r="I38" t="n">
         <v>34.5479025439635</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>96.44420510686429</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
         <v>218.7163152458132</v>
@@ -3799,7 +3799,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250137</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>72.55550382028342</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>161.683605144497</v>
@@ -3918,7 +3918,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>246.8935201841353</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
         <v>218.7163152458132</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4200,7 +4200,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>168.1487656894605</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1910.322343568193</v>
+        <v>486.3972112100454</v>
       </c>
       <c r="C2" t="n">
-        <v>1483.421613581493</v>
+        <v>136.1701952755233</v>
       </c>
       <c r="D2" t="n">
-        <v>1329.03919062214</v>
+        <v>116.9179785009276</v>
       </c>
       <c r="E2" t="n">
-        <v>903.0622507699975</v>
+        <v>94.98144268918924</v>
       </c>
       <c r="F2" t="n">
-        <v>477.9380689593976</v>
+        <v>73.89766491899354</v>
       </c>
       <c r="G2" t="n">
-        <v>73.59900654884625</v>
+        <v>73.59900654884623</v>
       </c>
       <c r="H2" t="n">
-        <v>73.59900654884625</v>
+        <v>73.59900654884623</v>
       </c>
       <c r="I2" t="n">
-        <v>38.70213529231746</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="J2" t="n">
         <v>401.305594109213</v>
       </c>
       <c r="K2" t="n">
-        <v>880.2445183516415</v>
+        <v>880.2445183516413</v>
       </c>
       <c r="L2" t="n">
-        <v>977.2289161310157</v>
+        <v>880.2445183516413</v>
       </c>
       <c r="M2" t="n">
-        <v>1456.167840373444</v>
+        <v>880.2445183516413</v>
       </c>
       <c r="N2" t="n">
-        <v>1456.167840373444</v>
+        <v>880.2445183516413</v>
       </c>
       <c r="O2" t="n">
-        <v>1456.167840373444</v>
+        <v>882.5260259873583</v>
       </c>
       <c r="P2" t="n">
-        <v>1935.106764615873</v>
+        <v>1361.464950229787</v>
       </c>
       <c r="Q2" t="n">
-        <v>1935.106764615873</v>
+        <v>1817.55042973397</v>
       </c>
       <c r="R2" t="n">
-        <v>1935.106764615873</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="S2" t="n">
-        <v>1935.106764615873</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="T2" t="n">
-        <v>1935.106764615873</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="U2" t="n">
-        <v>1935.106764615873</v>
+        <v>1676.751855212284</v>
       </c>
       <c r="V2" t="n">
-        <v>1935.106764615873</v>
+        <v>1319.262440338534</v>
       </c>
       <c r="W2" t="n">
-        <v>1935.106764615873</v>
+        <v>1319.262440338534</v>
       </c>
       <c r="X2" t="n">
-        <v>1927.427169824024</v>
+        <v>1311.582845546685</v>
       </c>
       <c r="Y2" t="n">
-        <v>1926.130303819318</v>
+        <v>906.2455755015754</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>693.5426250668182</v>
+        <v>605.8256263237727</v>
       </c>
       <c r="C3" t="n">
-        <v>576.036721584323</v>
+        <v>488.3197228412774</v>
       </c>
       <c r="D3" t="n">
-        <v>472.196763099608</v>
+        <v>384.4797643565625</v>
       </c>
       <c r="E3" t="n">
-        <v>367.4948293725452</v>
+        <v>279.7778306294997</v>
       </c>
       <c r="F3" t="n">
-        <v>273.8489990554494</v>
+        <v>186.1320003124039</v>
       </c>
       <c r="G3" t="n">
-        <v>179.7952272730534</v>
+        <v>92.07822853000786</v>
       </c>
       <c r="H3" t="n">
-        <v>126.419134035363</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="I3" t="n">
-        <v>126.419134035363</v>
+        <v>46.14877825422928</v>
       </c>
       <c r="J3" t="n">
-        <v>398.116623314954</v>
+        <v>317.8462675338204</v>
       </c>
       <c r="K3" t="n">
-        <v>398.116623314954</v>
+        <v>796.7851917762487</v>
       </c>
       <c r="L3" t="n">
-        <v>877.0555475573826</v>
+        <v>796.7851917762487</v>
       </c>
       <c r="M3" t="n">
-        <v>1355.994471799811</v>
+        <v>1275.724116018677</v>
       </c>
       <c r="N3" t="n">
-        <v>1355.994471799811</v>
+        <v>1754.663040261105</v>
       </c>
       <c r="O3" t="n">
-        <v>1355.994471799811</v>
+        <v>1765.370455788124</v>
       </c>
       <c r="P3" t="n">
-        <v>1388.94197766839</v>
+        <v>1765.370455788124</v>
       </c>
       <c r="Q3" t="n">
-        <v>1853.08745453117</v>
+        <v>1765.370455788124</v>
       </c>
       <c r="R3" t="n">
-        <v>1935.106764615873</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="S3" t="n">
-        <v>1853.782517177127</v>
+        <v>1766.065518434082</v>
       </c>
       <c r="T3" t="n">
-        <v>1711.902581474806</v>
+        <v>1624.18558273176</v>
       </c>
       <c r="U3" t="n">
-        <v>1527.134385394442</v>
+        <v>1439.417386651397</v>
       </c>
       <c r="V3" t="n">
-        <v>1322.161246533708</v>
+        <v>1234.444247790663</v>
       </c>
       <c r="W3" t="n">
-        <v>1125.639869366926</v>
+        <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>962.1625231335886</v>
+        <v>874.445524390543</v>
       </c>
       <c r="Y3" t="n">
-        <v>822.469634486881</v>
+        <v>734.7526357438354</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>778.0489204700307</v>
+        <v>215.9773847773002</v>
       </c>
       <c r="C4" t="n">
-        <v>778.0489204700307</v>
+        <v>215.9773847773002</v>
       </c>
       <c r="D4" t="n">
-        <v>614.7321475968014</v>
+        <v>215.9773847773002</v>
       </c>
       <c r="E4" t="n">
-        <v>448.523941749655</v>
+        <v>215.9773847773002</v>
       </c>
       <c r="F4" t="n">
-        <v>448.523941749655</v>
+        <v>44.11561055186064</v>
       </c>
       <c r="G4" t="n">
-        <v>282.2669720438871</v>
+        <v>44.11561055186064</v>
       </c>
       <c r="H4" t="n">
-        <v>138.4707035520415</v>
+        <v>44.11561055186064</v>
       </c>
       <c r="I4" t="n">
-        <v>38.70213529231746</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="J4" t="n">
-        <v>96.19346351647548</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="K4" t="n">
-        <v>322.7210647223127</v>
+        <v>265.2297364981546</v>
       </c>
       <c r="L4" t="n">
-        <v>393.4019879271602</v>
+        <v>520.4021181679216</v>
       </c>
       <c r="M4" t="n">
-        <v>784.587782897411</v>
+        <v>911.5879131381723</v>
       </c>
       <c r="N4" t="n">
-        <v>1162.079293773447</v>
+        <v>1289.079424014208</v>
       </c>
       <c r="O4" t="n">
-        <v>1517.50742245321</v>
+        <v>1644.507552693971</v>
       </c>
       <c r="P4" t="n">
-        <v>1808.106634375111</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="Q4" t="n">
-        <v>1935.106764615873</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="R4" t="n">
-        <v>1935.106764615873</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="S4" t="n">
-        <v>1935.106764615873</v>
+        <v>1764.971717135007</v>
       </c>
       <c r="T4" t="n">
-        <v>1772.674701627958</v>
+        <v>1521.632369360907</v>
       </c>
       <c r="U4" t="n">
-        <v>1492.490253128262</v>
+        <v>1241.447920861211</v>
       </c>
       <c r="V4" t="n">
-        <v>1210.778785736291</v>
+        <v>959.7364534692401</v>
       </c>
       <c r="W4" t="n">
-        <v>1210.778785736291</v>
+        <v>684.8840496417531</v>
       </c>
       <c r="X4" t="n">
-        <v>968.2148891820964</v>
+        <v>442.3201530875582</v>
       </c>
       <c r="Y4" t="n">
-        <v>968.2148891820964</v>
+        <v>215.9773847773002</v>
       </c>
     </row>
     <row r="5">
@@ -4543,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2078.856605666331</v>
+        <v>1029.323819803441</v>
       </c>
       <c r="C5" t="n">
-        <v>1651.955875679631</v>
+        <v>1006.463493857145</v>
       </c>
       <c r="D5" t="n">
-        <v>1632.703658905035</v>
+        <v>987.2112770825493</v>
       </c>
       <c r="E5" t="n">
-        <v>1206.726719052893</v>
+        <v>873.9614692703988</v>
       </c>
       <c r="F5" t="n">
-        <v>781.6025372422929</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G5" t="n">
-        <v>377.2634748317415</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>595.1637600336857</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L5" t="n">
-        <v>1145.829295018124</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M5" t="n">
-        <v>1696.494830002562</v>
+        <v>407.101683866143</v>
       </c>
       <c r="N5" t="n">
-        <v>2107.354917580474</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="O5" t="n">
-        <v>2107.354917580474</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P5" t="n">
-        <v>2107.354917580474</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
         <v>2107.354917580474</v>
@@ -4594,25 +4594,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.911252462377</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="V5" t="n">
-        <v>2224.911252462377</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="W5" t="n">
-        <v>2224.911252462377</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="X5" t="n">
-        <v>2217.231657670528</v>
+        <v>1450.469050099676</v>
       </c>
       <c r="Y5" t="n">
-        <v>2215.934791665823</v>
+        <v>1045.131780054567</v>
       </c>
     </row>
     <row r="6">
@@ -4646,28 +4646,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>44.49822504924753</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K6" t="n">
-        <v>44.49822504924753</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L6" t="n">
-        <v>595.1637600336857</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="M6" t="n">
-        <v>1145.829295018124</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="N6" t="n">
-        <v>1696.494830002562</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="O6" t="n">
-        <v>1853.185855629757</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="P6" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q6" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>268.5772905989122</v>
+        <v>961.4223778677166</v>
       </c>
       <c r="C7" t="n">
-        <v>188.2944935410931</v>
+        <v>789.4498147466326</v>
       </c>
       <c r="D7" t="n">
-        <v>188.2944935410931</v>
+        <v>626.1330418734033</v>
       </c>
       <c r="E7" t="n">
-        <v>188.2944935410931</v>
+        <v>459.9248360262568</v>
       </c>
       <c r="F7" t="n">
-        <v>188.2944935410931</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="G7" t="n">
-        <v>188.2944935410931</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>101.9895532734062</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>328.5171544792433</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>683.2064757736641</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1451.883781619951</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.87263914955</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668685</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T7" t="n">
-        <v>1764.398243894585</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="U7" t="n">
-        <v>1484.213795394889</v>
+        <v>2177.058882663693</v>
       </c>
       <c r="V7" t="n">
-        <v>1202.502328002918</v>
+        <v>1895.347415271722</v>
       </c>
       <c r="W7" t="n">
-        <v>927.6499241754307</v>
+        <v>1620.495011444235</v>
       </c>
       <c r="X7" t="n">
-        <v>685.0860276212358</v>
+        <v>1377.93111489004</v>
       </c>
       <c r="Y7" t="n">
-        <v>458.7432593109778</v>
+        <v>1151.588346579782</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>821.2800918455217</v>
+        <v>2185.028631180769</v>
       </c>
       <c r="C8" t="n">
-        <v>798.4197658992259</v>
+        <v>1758.12790119407</v>
       </c>
       <c r="D8" t="n">
-        <v>779.1675491246302</v>
+        <v>1334.83528037907</v>
       </c>
       <c r="E8" t="n">
-        <v>469.9210652299946</v>
+        <v>908.8583405269275</v>
       </c>
       <c r="F8" t="n">
-        <v>44.79688341939484</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="G8" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H8" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
         <v>44.49822504924753</v>
@@ -4807,22 +4807,22 @@
         <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
+        <v>407.101683866143</v>
+      </c>
+      <c r="L8" t="n">
         <v>957.7672188505812</v>
       </c>
-      <c r="L8" t="n">
-        <v>1508.432753835019</v>
-      </c>
       <c r="M8" t="n">
-        <v>1651.269438076291</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="N8" t="n">
-        <v>1651.269438076291</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="O8" t="n">
-        <v>1651.269438076291</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="P8" t="n">
-        <v>1651.269438076291</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q8" t="n">
         <v>2107.354917580474</v>
@@ -4834,22 +4834,22 @@
         <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>2003.98568150701</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>2003.98568150701</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V8" t="n">
-        <v>1646.496266633259</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W8" t="n">
-        <v>1250.104916933606</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X8" t="n">
-        <v>838.3849181013534</v>
+        <v>2217.231657670528</v>
       </c>
       <c r="Y8" t="n">
-        <v>837.0880520966477</v>
+        <v>2215.934791665823</v>
       </c>
     </row>
     <row r="9">
@@ -4886,22 +4886,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K9" t="n">
-        <v>44.49822504924753</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L9" t="n">
-        <v>201.1892506764427</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M9" t="n">
-        <v>751.8547856608809</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="N9" t="n">
-        <v>1302.520320645319</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="O9" t="n">
-        <v>1302.520320645319</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="P9" t="n">
-        <v>1853.185855629757</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q9" t="n">
         <v>1853.185855629757</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>458.7432593109769</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C10" t="n">
-        <v>458.7432593109769</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D10" t="n">
-        <v>458.7432593109769</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E10" t="n">
-        <v>458.7432593109769</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
         <v>454.3200315065851</v>
@@ -4989,25 +4989,25 @@
         <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2007.737591668684</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T10" t="n">
-        <v>1764.398243894584</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="U10" t="n">
-        <v>1484.213795394888</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="V10" t="n">
-        <v>1202.502328002917</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W10" t="n">
-        <v>927.6499241754298</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X10" t="n">
-        <v>685.0860276212348</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y10" t="n">
-        <v>458.7432593109769</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C11" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D11" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E11" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F11" t="n">
-        <v>839.4070255988738</v>
+        <v>839.407025598875</v>
       </c>
       <c r="G11" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883236</v>
       </c>
       <c r="H11" t="n">
         <v>137.1995846623573</v>
@@ -5041,28 +5041,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K11" t="n">
-        <v>464.9061722227241</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L11" t="n">
-        <v>1394.531219842001</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M11" t="n">
-        <v>2398.817321261059</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N11" t="n">
-        <v>3375.06837974776</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O11" t="n">
-        <v>4220.213029898572</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P11" t="n">
-        <v>4928.4923090565</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q11" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R11" t="n">
         <v>5115.135670291427</v>
@@ -5086,7 +5086,7 @@
         <v>3365.887132399956</v>
       </c>
       <c r="Y11" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="12">
@@ -5120,28 +5120,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J12" t="n">
-        <v>374.0002026854196</v>
+        <v>275.974508780231</v>
       </c>
       <c r="K12" t="n">
-        <v>374.0002026854196</v>
+        <v>275.974508780231</v>
       </c>
       <c r="L12" t="n">
-        <v>374.0002026854196</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="M12" t="n">
-        <v>1429.986740661465</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="N12" t="n">
-        <v>1910.990343986338</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="O12" t="n">
-        <v>1910.990343986338</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="P12" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q12" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R12" t="n">
         <v>1910.990343986338</v>
@@ -5175,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>747.5344987021109</v>
+        <v>922.3984947971121</v>
       </c>
       <c r="C13" t="n">
-        <v>747.5344987021109</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="D13" t="n">
-        <v>584.2177258288816</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E13" t="n">
         <v>584.2177258288816</v>
@@ -5223,28 +5223,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S13" t="n">
-        <v>2211.842395944396</v>
+        <v>2228.828930600624</v>
       </c>
       <c r="T13" t="n">
-        <v>1968.503048170296</v>
+        <v>1985.489582826524</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.3185996706</v>
+        <v>1705.305134326828</v>
       </c>
       <c r="V13" t="n">
-        <v>1406.607132278629</v>
+        <v>1423.593666934857</v>
       </c>
       <c r="W13" t="n">
-        <v>1406.607132278629</v>
+        <v>1148.74126310737</v>
       </c>
       <c r="X13" t="n">
-        <v>1164.043235724434</v>
+        <v>1148.74126310737</v>
       </c>
       <c r="Y13" t="n">
-        <v>937.7004674141765</v>
+        <v>922.3984947971121</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C14" t="n">
         <v>2113.800768076616</v>
@@ -5266,40 +5266,40 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>839.4070255988738</v>
+        <v>839.407025598874</v>
       </c>
       <c r="G14" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883226</v>
       </c>
       <c r="H14" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I14" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K14" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>1031.927761025105</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>2036.213862444163</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N14" t="n">
-        <v>3012.464920930865</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O14" t="n">
-        <v>3857.609571081677</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P14" t="n">
-        <v>4541.493855905342</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q14" t="n">
-        <v>4997.579335409525</v>
+        <v>5095.799995117123</v>
       </c>
       <c r="R14" t="n">
         <v>5115.135670291427</v>
@@ -5308,19 +5308,19 @@
         <v>5010.768376164568</v>
       </c>
       <c r="T14" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U14" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W14" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X14" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y14" t="n">
         <v>2960.549862354846</v>
@@ -5357,25 +5357,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J15" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K15" t="n">
-        <v>374.0002026854196</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L15" t="n">
-        <v>374.0002026854196</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M15" t="n">
-        <v>374.0002026854196</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N15" t="n">
-        <v>374.0002026854196</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O15" t="n">
-        <v>730.647150085061</v>
+        <v>1582.26891798564</v>
       </c>
       <c r="P15" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q15" t="n">
         <v>1910.990343986338</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1058.412742328024</v>
+        <v>739.080722990552</v>
       </c>
       <c r="C16" t="n">
-        <v>913.7427045492574</v>
+        <v>567.108159869468</v>
       </c>
       <c r="D16" t="n">
-        <v>750.4259316760281</v>
+        <v>567.108159869468</v>
       </c>
       <c r="E16" t="n">
-        <v>584.2177258288816</v>
+        <v>567.108159869468</v>
       </c>
       <c r="F16" t="n">
-        <v>412.355951603442</v>
+        <v>395.2463856440284</v>
       </c>
       <c r="G16" t="n">
-        <v>246.0989818976742</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H16" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I16" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>159.7940416299866</v>
+        <v>159.794041629986</v>
       </c>
       <c r="K16" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358232</v>
       </c>
       <c r="L16" t="n">
-        <v>741.0109641302445</v>
+        <v>741.010964130244</v>
       </c>
       <c r="M16" t="n">
         <v>1132.196759100495</v>
@@ -5457,7 +5457,7 @@
         <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818956</v>
       </c>
       <c r="R16" t="n">
         <v>2235.67712750613</v>
@@ -5469,19 +5469,19 @@
         <v>1992.33777973203</v>
       </c>
       <c r="U16" t="n">
-        <v>1992.33777973203</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V16" t="n">
-        <v>1992.33777973203</v>
+        <v>1430.441863840363</v>
       </c>
       <c r="W16" t="n">
-        <v>1717.485375904543</v>
+        <v>1155.589460012876</v>
       </c>
       <c r="X16" t="n">
-        <v>1474.921479350348</v>
+        <v>1155.589460012876</v>
       </c>
       <c r="Y16" t="n">
-        <v>1248.57871104009</v>
+        <v>929.2466917026177</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
         <v>1690.508147261616</v>
@@ -5503,40 +5503,40 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>817.8110213813276</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L17" t="n">
-        <v>1747.436069000604</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M17" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N17" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O17" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P17" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291427</v>
@@ -5600,13 +5600,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>855.0038060102931</v>
       </c>
       <c r="M18" t="n">
-        <v>102.3027134058285</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N18" t="n">
-        <v>1021.509065974867</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O18" t="n">
         <v>1910.990343986338</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>684.0483191256287</v>
+        <v>1041.68756743822</v>
       </c>
       <c r="C19" t="n">
-        <v>512.0757560045447</v>
+        <v>869.7150043171358</v>
       </c>
       <c r="D19" t="n">
-        <v>512.0757560045447</v>
+        <v>706.3982314439065</v>
       </c>
       <c r="E19" t="n">
-        <v>345.8675501573982</v>
+        <v>540.1900255967601</v>
       </c>
       <c r="F19" t="n">
-        <v>345.8675501573982</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H19" t="n">
         <v>202.0712816655526</v>
@@ -5682,43 +5682,43 @@
         <v>741.0109641302445</v>
       </c>
       <c r="M19" t="n">
-        <v>1132.196759100495</v>
+        <v>1132.196759100494</v>
       </c>
       <c r="N19" t="n">
-        <v>1509.688269976531</v>
+        <v>1509.68826997653</v>
       </c>
       <c r="O19" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656293</v>
       </c>
       <c r="P19" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578194</v>
       </c>
       <c r="Q19" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818956</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818956</v>
       </c>
       <c r="S19" t="n">
-        <v>2235.67712750613</v>
+        <v>2112.580693338091</v>
       </c>
       <c r="T19" t="n">
-        <v>2179.869272421301</v>
+        <v>2112.580693338091</v>
       </c>
       <c r="U19" t="n">
-        <v>1899.684823921605</v>
+        <v>1832.396244838395</v>
       </c>
       <c r="V19" t="n">
-        <v>1617.973356529634</v>
+        <v>1749.269836531967</v>
       </c>
       <c r="W19" t="n">
-        <v>1343.120952702147</v>
+        <v>1474.41743270448</v>
       </c>
       <c r="X19" t="n">
-        <v>1100.557056147952</v>
+        <v>1231.853536150285</v>
       </c>
       <c r="Y19" t="n">
-        <v>874.2142878376944</v>
+        <v>1231.853536150285</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
@@ -5740,40 +5740,40 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2751.722170419663</v>
+        <v>2974.519853142615</v>
       </c>
       <c r="N20" t="n">
-        <v>3727.973228906364</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="O20" t="n">
-        <v>4573.117879057176</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P20" t="n">
-        <v>4997.579335409525</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R20" t="n">
         <v>5115.135670291427</v>
@@ -5788,16 +5788,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K21" t="n">
-        <v>692.7876399741681</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="L21" t="n">
-        <v>692.7876399741681</v>
+        <v>1537.033091018986</v>
       </c>
       <c r="M21" t="n">
-        <v>692.7876399741681</v>
+        <v>1537.033091018986</v>
       </c>
       <c r="N21" t="n">
-        <v>1446.844867123559</v>
+        <v>1537.033091018986</v>
       </c>
       <c r="O21" t="n">
-        <v>1446.844867123559</v>
+        <v>1537.033091018986</v>
       </c>
       <c r="P21" t="n">
-        <v>1446.844867123559</v>
+        <v>1537.033091018986</v>
       </c>
       <c r="Q21" t="n">
         <v>1910.990343986338</v>
@@ -5998,19 +5998,19 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>3114.325629236558</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N23" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6065,28 +6065,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M24" t="n">
-        <v>821.6753975134684</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="Q24" t="n">
         <v>1910.990343986338</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>603.8002552472883</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C25" t="n">
-        <v>431.8276921262043</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>268.510919252975</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
         <v>102.3027134058285</v>
@@ -6174,25 +6174,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2112.580693338092</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T25" t="n">
-        <v>1869.241345563992</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U25" t="n">
-        <v>1589.056897064296</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V25" t="n">
-        <v>1307.345429672325</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W25" t="n">
-        <v>1032.493025844838</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X25" t="n">
-        <v>1020.308992269612</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y25" t="n">
-        <v>793.966223959354</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>651.5495334576516</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1581.174581076928</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2585.460682495986</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N26" t="n">
-        <v>3561.711740982687</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O26" t="n">
-        <v>4406.8563911335</v>
+        <v>3959.47027938737</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6302,28 +6302,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M27" t="n">
-        <v>1158.289251381874</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="N27" t="n">
-        <v>1158.289251381874</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="Q27" t="n">
         <v>1910.990343986338</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>778.6022263052722</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>606.6296631841882</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>606.6296631841882</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>440.4214573370417</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>268.5596831116021</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
         <v>102.3027134058285</v>
@@ -6411,25 +6411,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2112.580693338092</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>1869.241345563992</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>1712.527263709278</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>1712.527263709278</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>1437.674859881791</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>1195.110963327596</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>968.7681950173378</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6466,22 +6466,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>1031.927761025105</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>2036.213862444163</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>3012.464920930865</v>
       </c>
       <c r="O29" t="n">
-        <v>4573.117879057176</v>
+        <v>3857.609571081677</v>
       </c>
       <c r="P29" t="n">
-        <v>4997.579335409525</v>
+        <v>4565.888850239604</v>
       </c>
       <c r="Q29" t="n">
         <v>4997.579335409525</v>
@@ -6545,22 +6545,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>730.647150085061</v>
       </c>
       <c r="M30" t="n">
-        <v>821.6753975134684</v>
+        <v>730.647150085061</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q30" t="n">
         <v>1910.990343986338</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1051.553678763535</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>879.5811156424509</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>716.2643427692216</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>550.0561369220751</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>378.1943626966355</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>211.9373929908676</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
@@ -6642,31 +6642,31 @@
         <v>2155.715610578195</v>
       </c>
       <c r="Q31" t="n">
-        <v>2282.715740818951</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.677127506125</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2235.677127506125</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>1992.337779732025</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>1992.337779732025</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>1710.626312340053</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>1710.626312340053</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>1468.062415785859</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>1241.719647475601</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6700,25 +6700,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O32" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
         <v>4997.579335409525</v>
@@ -6779,28 +6779,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L33" t="n">
-        <v>939.1015214887346</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M33" t="n">
-        <v>939.1015214887346</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q33" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6925,7 +6925,7 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G35" t="n">
         <v>435.0679631883225</v>
@@ -6937,40 +6937,40 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1747.436069000604</v>
+        <v>2011.8188681099</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.8188681099</v>
       </c>
       <c r="N35" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O35" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U35" t="n">
-        <v>4531.487895805613</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
         <v>4173.998480931861</v>
@@ -6979,7 +6979,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y35" t="n">
         <v>2960.549862354846</v>
@@ -7016,25 +7016,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L36" t="n">
-        <v>939.1015214887346</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M36" t="n">
-        <v>939.1015214887346</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q36" t="n">
         <v>1910.990343986338</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>446.1370507523521</v>
+        <v>440.483482374059</v>
       </c>
       <c r="C37" t="n">
-        <v>274.1644876312681</v>
+        <v>268.510919252975</v>
       </c>
       <c r="D37" t="n">
-        <v>274.1644876312681</v>
+        <v>268.510919252975</v>
       </c>
       <c r="E37" t="n">
-        <v>274.1644876312681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F37" t="n">
         <v>102.3027134058285</v>
@@ -7095,10 +7095,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7122,25 +7122,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2185.297351822124</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T37" t="n">
-        <v>1941.958004048024</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U37" t="n">
-        <v>1661.773555548329</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V37" t="n">
-        <v>1380.062088156358</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W37" t="n">
-        <v>1105.20968432887</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X37" t="n">
-        <v>862.6457877746757</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y37" t="n">
-        <v>636.3030194644177</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="38">
@@ -7150,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D38" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N38" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O38" t="n">
-        <v>4573.117879057176</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291427</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
         <v>5115.135670291427</v>
@@ -7210,16 +7210,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J39" t="n">
-        <v>381.4468456473314</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K39" t="n">
-        <v>971.931772215671</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L39" t="n">
-        <v>1808.730580298577</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M39" t="n">
-        <v>1808.730580298577</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N39" t="n">
-        <v>1808.730580298577</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.730580298577</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P39" t="n">
-        <v>1808.730580298577</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q39" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>446.1370507523521</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C40" t="n">
-        <v>274.1644876312681</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D40" t="n">
-        <v>274.1644876312681</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E40" t="n">
-        <v>274.1644876312681</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F40" t="n">
         <v>102.3027134058285</v>
@@ -7359,25 +7359,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2185.297351822124</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T40" t="n">
-        <v>1941.958004048024</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U40" t="n">
-        <v>1661.773555548329</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V40" t="n">
-        <v>1380.062088156358</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W40" t="n">
-        <v>1105.20968432887</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X40" t="n">
-        <v>862.6457877746757</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y40" t="n">
-        <v>636.3030194644177</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="41">
@@ -7411,16 +7411,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K41" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>1007.532766690843</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>2011.818868109901</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N41" t="n">
         <v>2988.069926596602</v>
@@ -7438,10 +7438,10 @@
         <v>5115.135670291427</v>
       </c>
       <c r="S41" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T41" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U41" t="n">
         <v>4531.487895805612</v>
@@ -7493,25 +7493,25 @@
         <v>381.4468456473314</v>
       </c>
       <c r="K42" t="n">
-        <v>381.4468456473314</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L42" t="n">
-        <v>390.8583291475138</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M42" t="n">
-        <v>1446.844867123559</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N42" t="n">
-        <v>1446.844867123559</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O42" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P42" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q42" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R42" t="n">
         <v>1910.990343986338</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1185.483835930065</v>
+        <v>913.7427045492574</v>
       </c>
       <c r="C43" t="n">
-        <v>1013.511272808982</v>
+        <v>913.7427045492574</v>
       </c>
       <c r="D43" t="n">
-        <v>850.1944999357522</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E43" t="n">
-        <v>683.9862940886057</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F43" t="n">
-        <v>512.1245198631661</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G43" t="n">
-        <v>345.8675501573982</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H43" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I43" t="n">
         <v>102.3027134058285</v>
@@ -7593,28 +7593,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S43" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T43" t="n">
-        <v>2282.715740818957</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U43" t="n">
-        <v>2002.531292319261</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="V43" t="n">
-        <v>2002.531292319261</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="W43" t="n">
-        <v>1727.678888491774</v>
+        <v>1572.815338125776</v>
       </c>
       <c r="X43" t="n">
-        <v>1485.114991937579</v>
+        <v>1330.251441571581</v>
       </c>
       <c r="Y43" t="n">
-        <v>1258.772223627321</v>
+        <v>1103.908673261323</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C44" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D44" t="n">
         <v>1690.508147261616</v>
@@ -7636,49 +7636,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G44" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H44" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I44" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>195.4640539534684</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K44" t="n">
-        <v>195.4640539534684</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L44" t="n">
-        <v>1125.089101572745</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M44" t="n">
-        <v>2129.375202991803</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N44" t="n">
-        <v>3105.626261478504</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O44" t="n">
-        <v>3950.770911629316</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P44" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q44" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R44" t="n">
         <v>5115.135670291427</v>
       </c>
       <c r="S44" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T44" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U44" t="n">
         <v>4531.487895805612</v>
@@ -7736,13 +7736,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M45" t="n">
-        <v>357.5299206506891</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N45" t="n">
-        <v>1446.844867123559</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O45" t="n">
-        <v>1446.844867123559</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P45" t="n">
         <v>1446.844867123559</v>
@@ -7833,19 +7833,19 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S46" t="n">
-        <v>2112.580693338092</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T46" t="n">
-        <v>1869.241345563992</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U46" t="n">
-        <v>1589.056897064296</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V46" t="n">
-        <v>1307.345429672325</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W46" t="n">
-        <v>1032.493025844838</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X46" t="n">
         <v>862.6457877746757</v>
@@ -7981,28 +7981,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>519.5412919487776</v>
+        <v>519.5412919487774</v>
       </c>
       <c r="L2" t="n">
-        <v>136.2760805936069</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>521.2079540534</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>39.69551252341494</v>
       </c>
       <c r="P2" t="n">
-        <v>521.3520529641995</v>
+        <v>521.3520529641994</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,31 +8054,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>506.1759249873014</v>
       </c>
       <c r="L3" t="n">
-        <v>506.2917778681978</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>506.8734716662962</v>
+        <v>506.873471666296</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>505.1197193675097</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>33.98746096163496</v>
       </c>
       <c r="P3" t="n">
-        <v>55.0511501629894</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
         <v>106.5207073584907</v>
@@ -8136,13 +8136,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
-        <v>93.31363181978961</v>
+        <v>279.6686403702133</v>
       </c>
       <c r="M4" t="n">
         <v>417.7126065281028</v>
@@ -8157,7 +8157,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>452.289812307084</v>
+        <v>181.5591018660332</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
         <v>153.7764225027789</v>
@@ -8294,31 +8294,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>181.4456529820153</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>466.3767193553316</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>78.70880469517321</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
         <v>249.7804132464869</v>
@@ -8455,25 +8455,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
         <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>181.710741931019</v>
+        <v>86.17533235500369</v>
       </c>
       <c r="N8" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
         <v>153.7764225027789</v>
@@ -8534,16 +8534,16 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
-        <v>180.7888499740227</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>579.3245936279221</v>
+        <v>268.7645418748069</v>
       </c>
       <c r="N9" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
         <v>23.17188972222222</v>
@@ -8552,7 +8552,7 @@
         <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
         <v>23.67291939414415</v>
@@ -8689,10 +8689,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
         <v>977.3272420480539</v>
@@ -8707,13 +8707,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q11" t="n">
-        <v>105.9095497086638</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,31 +8768,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>295.0530226965566</v>
+        <v>196.0371702670732</v>
       </c>
       <c r="K12" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M12" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>507.2052537942219</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q12" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,16 +8926,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
         <v>1023.391803124043</v>
@@ -8944,13 +8944,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>728.3675687028222</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>54.56363491934598</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,10 +9005,10 @@
         <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
@@ -9020,13 +9020,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>383.4213315400418</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P15" t="n">
-        <v>745.2028786174529</v>
+        <v>353.8126856499787</v>
       </c>
       <c r="Q15" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9163,16 +9163,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L17" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>660.9541399377149</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
@@ -9181,13 +9181,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9248,16 +9248,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>782.8192206581333</v>
       </c>
       <c r="M18" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N18" t="n">
-        <v>949.8342934347922</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
         <v>21.77084120482866</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
@@ -9409,22 +9409,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>910.6437127227809</v>
       </c>
       <c r="N20" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O20" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P20" t="n">
-        <v>466.324307620685</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
         <v>20.61111433333334</v>
@@ -9485,13 +9485,13 @@
         <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M21" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>783.0169950311082</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
@@ -9500,7 +9500,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
-        <v>491.5808533018869</v>
+        <v>400.4816372459001</v>
       </c>
       <c r="R21" t="n">
         <v>23.67291939414415</v>
@@ -9646,22 +9646,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>218.8019602116015</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,22 +9713,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
@@ -9737,7 +9737,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>126.0397288826768</v>
       </c>
       <c r="R24" t="n">
         <v>23.67291939414415</v>
@@ -9874,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>590.5593685239236</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
         <v>977.3272420480539</v>
@@ -9886,19 +9886,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O26" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>625.4779643536372</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,31 +9950,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M27" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>783.4760236661258</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>126.0397288826768</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10114,7 +10114,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L29" t="n">
         <v>977.3272420480539</v>
@@ -10129,10 +10129,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>466.324307620685</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>472.1756697257304</v>
       </c>
       <c r="R29" t="n">
         <v>153.7764225027789</v>
@@ -10193,25 +10193,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
-        <v>22.51508671422956</v>
+        <v>60.75701611917185</v>
       </c>
       <c r="M30" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
         <v>23.67291939414415</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10357,19 +10357,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N32" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>466.324307620685</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10427,31 +10427,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>1003.048909524252</v>
+        <v>171.1290763038224</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,16 +10585,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>977.3272420480539</v>
+        <v>878.1144544646197</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
         <v>1023.391803124043</v>
@@ -10603,13 +10603,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,28 +10664,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>1003.048909524252</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>23.17188972222222</v>
+        <v>510.4039481765655</v>
       </c>
       <c r="P36" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
         <v>23.67291939414415</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
@@ -10840,13 +10840,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>585.0680802286672</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>98.60750039798609</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J39" t="n">
         <v>295.0530226965566</v>
@@ -10907,7 +10907,7 @@
         <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
         <v>23.09678051232798</v>
@@ -10916,16 +10916,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>510.4039481765655</v>
       </c>
       <c r="P39" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
-        <v>43.1919409183301</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,19 +11059,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>952.6858336296069</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N41" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
@@ -11141,19 +11141,19 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
-        <v>32.02163570431277</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>420.03429863453</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
@@ -11162,7 +11162,7 @@
         <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,19 +11296,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>123.5223236751217</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N44" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
@@ -11320,7 +11320,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11384,16 +11384,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>280.9020403556215</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>657.8632399032651</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
         <v>491.5808533018869</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>144.83731275994</v>
+        <v>115.085754889907</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>27.02950008889374</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>115.7093528769464</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,16 +23709,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23895,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>185.6561777623783</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>196.5992084946877</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -24369,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>164.5944000087102</v>
@@ -24414,7 +24414,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>228.0760643491793</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24609,13 +24609,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
         <v>142.3583058069271</v>
@@ -24651,16 +24651,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>122.2356629785318</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>132.5908555948652</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>66.39245920468232</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25320,10 +25320,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
         <v>164.5944000087102</v>
@@ -25362,7 +25362,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>71.9894918991922</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25560,7 +25560,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G40" t="n">
         <v>164.5944000087102</v>
@@ -25599,7 +25599,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>71.9894918991922</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>115.7088052046616</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>25.21035960507683</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>71.98949189919244</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>633876.3234469156</v>
+        <v>633876.3234469155</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>633876.3234469154</v>
+        <v>633876.3234469155</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>633876.3234469154</v>
+        <v>633876.3234469155</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>633876.3234469155</v>
+        <v>633876.3234469156</v>
       </c>
     </row>
     <row r="14">
@@ -26316,43 +26316,43 @@
         <v>451393.0677086512</v>
       </c>
       <c r="C2" t="n">
-        <v>451393.0677086515</v>
+        <v>451393.0677086513</v>
       </c>
       <c r="D2" t="n">
-        <v>451393.0677086513</v>
+        <v>451393.0677086514</v>
       </c>
       <c r="E2" t="n">
         <v>435573.5624315216</v>
       </c>
       <c r="F2" t="n">
+        <v>435573.5624315215</v>
+      </c>
+      <c r="G2" t="n">
         <v>435573.5624315217</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>435573.5624315215</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>435573.5624315216</v>
+      </c>
+      <c r="J2" t="n">
+        <v>435573.5624315216</v>
+      </c>
+      <c r="K2" t="n">
         <v>435573.5624315217</v>
       </c>
-      <c r="I2" t="n">
-        <v>435573.5624315217</v>
-      </c>
-      <c r="J2" t="n">
-        <v>435573.5624315213</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>435573.5624315216</v>
+      </c>
+      <c r="M2" t="n">
         <v>435573.5624315215</v>
-      </c>
-      <c r="L2" t="n">
-        <v>435573.5624315217</v>
-      </c>
-      <c r="M2" t="n">
-        <v>435573.5624315217</v>
       </c>
       <c r="N2" t="n">
         <v>435573.5624315217</v>
       </c>
       <c r="O2" t="n">
-        <v>435573.5624315215</v>
+        <v>435573.5624315217</v>
       </c>
       <c r="P2" t="n">
         <v>435573.5624315217</v>
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162124.6960695913</v>
+        <v>162124.6960695912</v>
       </c>
       <c r="C3" t="n">
-        <v>23406.83367361215</v>
+        <v>23406.83367361221</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>126577.2685802888</v>
       </c>
       <c r="K3" t="n">
-        <v>18646.60035701974</v>
+        <v>18646.60035701978</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>180063.8714551677</v>
+        <v>180063.8714551676</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>191243.7287526203</v>
       </c>
       <c r="E4" t="n">
-        <v>86696.74064784778</v>
+        <v>86696.74064784771</v>
       </c>
       <c r="F4" t="n">
-        <v>86696.74064784776</v>
+        <v>86696.74064784771</v>
       </c>
       <c r="G4" t="n">
-        <v>86696.74064784776</v>
+        <v>86696.74064784771</v>
       </c>
       <c r="H4" t="n">
-        <v>86696.74064784776</v>
+        <v>86696.74064784772</v>
       </c>
       <c r="I4" t="n">
         <v>86696.74064784778</v>
       </c>
       <c r="J4" t="n">
-        <v>86696.74064784769</v>
+        <v>86696.74064784778</v>
       </c>
       <c r="K4" t="n">
-        <v>86696.74064784771</v>
+        <v>86696.74064784776</v>
       </c>
       <c r="L4" t="n">
-        <v>86696.74064784778</v>
+        <v>86696.74064784776</v>
       </c>
       <c r="M4" t="n">
-        <v>86696.74064784771</v>
+        <v>86696.74064784775</v>
       </c>
       <c r="N4" t="n">
-        <v>86696.74064784778</v>
+        <v>86696.74064784776</v>
       </c>
       <c r="O4" t="n">
         <v>86696.74064784776</v>
       </c>
       <c r="P4" t="n">
-        <v>86696.74064784778</v>
+        <v>86696.74064784776</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63041.22282216126</v>
+        <v>63041.22282216125</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26502,7 +26502,7 @@
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="N5" t="n">
         <v>77750.06218842969</v>
@@ -26524,46 +26524,46 @@
         <v>22860.17653734524</v>
       </c>
       <c r="C6" t="n">
-        <v>169296.2542449909</v>
+        <v>169296.2542449907</v>
       </c>
       <c r="D6" t="n">
-        <v>192703.0879186029</v>
+        <v>192703.087918603</v>
       </c>
       <c r="E6" t="n">
-        <v>55387.40303860356</v>
+        <v>55336.37237641936</v>
       </c>
       <c r="F6" t="n">
-        <v>271126.7595952442</v>
+        <v>271075.7289330598</v>
       </c>
       <c r="G6" t="n">
-        <v>271126.7595952441</v>
+        <v>271075.72893306</v>
       </c>
       <c r="H6" t="n">
-        <v>271126.7595952442</v>
+        <v>271075.7289330598</v>
       </c>
       <c r="I6" t="n">
-        <v>271126.7595952442</v>
+        <v>271075.7289330598</v>
       </c>
       <c r="J6" t="n">
-        <v>144549.4910149551</v>
+        <v>144498.460352771</v>
       </c>
       <c r="K6" t="n">
-        <v>252480.1592382244</v>
+        <v>252429.1285760401</v>
       </c>
       <c r="L6" t="n">
-        <v>271126.7595952442</v>
+        <v>271075.7289330598</v>
       </c>
       <c r="M6" t="n">
-        <v>91062.88814007661</v>
+        <v>91011.85747789222</v>
       </c>
       <c r="N6" t="n">
-        <v>271126.7595952442</v>
+        <v>271075.72893306</v>
       </c>
       <c r="O6" t="n">
-        <v>271126.759595244</v>
+        <v>271075.7289330599</v>
       </c>
       <c r="P6" t="n">
-        <v>271126.7595952442</v>
+        <v>271075.72893306</v>
       </c>
     </row>
   </sheetData>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539682</v>
+        <v>483.776691153968</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539682</v>
+        <v>483.776691153968</v>
       </c>
       <c r="C4" t="n">
-        <v>72.45112196162592</v>
+        <v>72.45112196162609</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539682</v>
+        <v>483.776691153968</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162592</v>
+        <v>72.45112196162609</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539682</v>
+        <v>483.776691153968</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162592</v>
+        <v>72.45112196162609</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27378,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>75.90697691165599</v>
+      </c>
+      <c r="D2" t="n">
         <v>400</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>266.2210958770903</v>
-      </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
@@ -27435,10 +27435,10 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
@@ -27447,7 +27447,7 @@
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>93.41154207017902</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,10 +27587,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>80.09821193832332</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27599,13 +27599,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>279.9424765091179</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>309.599860719592</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>353.914520725013</v>
@@ -27681,10 +27681,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,16 +27776,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>90.77286840263233</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
@@ -27794,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,13 +27824,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>276.5769850937016</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>385.0527817684122</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>115.5631513979318</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,19 +27906,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>165.7641609568373</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28061,16 +28061,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>163.7887810877128</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28329,25 +28329,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>-8.526512829121202e-13</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>-4.063161046444251e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-4.063161046444251e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-4.063161046444251e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-4.063161046444251e-14</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>-4.063161046444251e-14</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28380,19 +28380,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-4.063161046444251e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-4.063161046444251e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-4.063161046444251e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>-4.063161046444251e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>-4.063161046444251e-14</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28508,7 +28508,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>-5.701969335176782e-13</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -28620,7 +28620,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28754,7 +28754,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>-9.7515865114662e-13</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -28800,7 +28800,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-7.6250157187155e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -34701,28 +34701,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>483.7766911539682</v>
+        <v>483.776691153968</v>
       </c>
       <c r="L2" t="n">
-        <v>97.96403816098399</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>483.7766911539682</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>2.304553167390843</v>
       </c>
       <c r="P2" t="n">
-        <v>483.7766911539682</v>
+        <v>483.776691153968</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,31 +34774,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>483.776691153968</v>
       </c>
       <c r="L3" t="n">
-        <v>483.7766911539682</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>483.7766911539682</v>
+        <v>483.776691153968</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>483.776691153968</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>10.81557123941274</v>
       </c>
       <c r="P3" t="n">
-        <v>33.28030895816074</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>82.84778796434657</v>
@@ -34856,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
-        <v>71.39487192408838</v>
+        <v>257.7498804745121</v>
       </c>
       <c r="M4" t="n">
         <v>395.137166636617</v>
@@ -34877,7 +34877,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>144.2794790315872</v>
+      </c>
+      <c r="O5" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L5" t="n">
+      <c r="P5" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M5" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="N5" t="n">
-        <v>415.010189472638</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
         <v>118.7437726079824</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M6" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="N6" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="O6" t="n">
-        <v>158.2737632597931</v>
-      </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>444.6058781505029</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>58.07204871127134</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
         <v>228.8157587937749</v>
@@ -35175,25 +35175,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
-        <v>144.2794790315872</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>118.7437726079824</v>
@@ -35254,16 +35254,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
-        <v>158.2737632597931</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>556.2278131155941</v>
+        <v>245.6677613624789</v>
       </c>
       <c r="N9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35272,7 +35272,7 @@
         <v>556.2278131155941</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
         <v>939.015199615431</v>
@@ -35427,13 +35427,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q11" t="n">
-        <v>69.78487510406572</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>274.4419083632233</v>
+        <v>175.4260559337398</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M12" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>485.8622255806802</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,16 +35646,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>986.1121802895968</v>
@@ -35664,13 +35664,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>690.7922068925909</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>19.53098502454951</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35740,13 +35740,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>360.2494418178196</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P15" t="n">
-        <v>723.4320374126243</v>
+        <v>332.04184444515</v>
       </c>
       <c r="Q15" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127016</v>
       </c>
       <c r="K16" t="n">
         <v>228.8157587937749</v>
@@ -35883,16 +35883,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>623.5228770382831</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
@@ -35901,13 +35901,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,16 +35968,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>760.3041339439037</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N18" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36050,7 +36050,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M19" t="n">
-        <v>395.137166636617</v>
+        <v>395.137166636616</v>
       </c>
       <c r="N19" t="n">
         <v>381.3045564404402</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
@@ -36129,22 +36129,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>873.2124498233492</v>
       </c>
       <c r="N20" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O20" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>428.7489458104537</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -36205,13 +36205,13 @@
         <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>761.6739668175666</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36220,7 +36220,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>468.8338150129084</v>
+        <v>377.7345989569216</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36366,22 +36366,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>181.2265984013702</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36457,7 +36457,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,10 +36594,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>554.7947677291143</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
         <v>939.015199615431</v>
@@ -36606,19 +36606,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>587.9026025434059</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M27" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>939.015199615431</v>
@@ -36849,10 +36849,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>428.7489458104537</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>436.0509951211323</v>
       </c>
       <c r="R29" t="n">
         <v>118.7437726079824</v>
@@ -36913,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="M30" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37010,7 +37010,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q31" t="n">
-        <v>128.2829598391478</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37077,19 +37077,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N32" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>428.7489458104537</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
         <v>118.7437726079824</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>981.7058813107108</v>
+        <v>149.7860480902807</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,16 +37305,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
-        <v>939.015199615431</v>
+        <v>839.8024120319968</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>986.1121802895968</v>
@@ -37323,13 +37323,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>981.7058813107108</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>487.2320584543432</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
@@ -37560,13 +37560,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>547.4927184184359</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>274.4419083632233</v>
@@ -37627,7 +37627,7 @@
         <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37636,16 +37636,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>487.2320584543432</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>20.4449026293516</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>914.373791196984</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N41" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
@@ -37861,19 +37861,19 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
-        <v>9.506548990083218</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37882,7 +37882,7 @@
         <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>94.10236418953517</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N44" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
@@ -38040,7 +38040,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,16 +38104,16 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>257.8052598432935</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
         <v>468.8338150129084</v>
